--- a/Excel/Initial data model.xlsx
+++ b/Excel/Initial data model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermoore/Documents/GitHub/Pete Moore - Data Scientist - CV/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E56C73-72C2-C54B-B25C-4CD512A5A32E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2058AA4A-FFA4-C64A-93B2-6F832D785F15}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F4DDD439-41B3-D540-B38C-F7A1457D80E2}"/>
   </bookViews>
@@ -747,9 +747,6 @@
     <t>I code T-SQL to an expert level. I have been coding in SQL since 2001. This means that I have spent 10,000 hours (easily!) sat in front of SQL Server Management Studio (SSMS).  I am competent across the SQL Server stack including SQL Server Analysis Services (SSAS), SQL Server Reporting Services (SSRS) and SQL Server Integration Services (SSIS).  I have attended, spoken at and *arranged* SQL Server User Groups and Conferences. I am a thought leader and have spoken publically about SQL Server across the globe. I also mentor SQL Server. I augment my SQL Server skills with skills in associated platforms such as R, Python and Power BI (on which I have also spoken publically). My passion is Data Science and I am presently in the final year of the Data Science Masters Degree at the University of Dundee. My ethos is that it always starts with the data and I am always buttressing my extant skill set with new skills: the problem always comes first.</t>
   </si>
   <si>
-    <t>I have more than two decades’ experience in the data industry, and I love helping organisations get the most from their data. I advise on data strategy. I code at expert level in R, Python and SQL.  I have hands-on experience with the following machine learning and deep learning algorithms and megthodologies: collaborative filters, association rules, k-means, restrcted boltzmann machnes, convoluted neural networks. I have composed code using the following deep learning platforms: Tensorflow, Keras, DL4J.  This list however is not exhaustive because I *strongly* believe that the problem picks the platform and I am always willing to enhance my skill set accordingly.  I’m constantly learning and refining my skills and am currently studying for an MSc Data Science at the University of Dundee. My ethos is that it always starts with the data.</t>
-  </si>
-  <si>
     <t>Look at your Data delivered GDPR training to medium-sized groups of varied backgrounds, organisations and technical abilities.</t>
   </si>
   <si>
@@ -961,6 +958,9 @@
   </si>
   <si>
     <t>Elementary machine learning for email analysis.</t>
+  </si>
+  <si>
+    <t>I have more than two decades’ experience in the data industry, and I love helping organisations get the most from their data. I advise on data strategy. I code at expert level in R, Python and SQL.  I have hands-on experience with the following machine learning and deep learning algorithms and megthodologies: collaborative filters, association rules, k-means, restrcted boltzmann machnes, convoluted neural networks. I have composed code using the following deep learning platforms: Tensorflow, Keras, DL4J.  This list however is not exhaustive because I *strongly* believe that the problem picks the platform and I am always willing to enhance my skill set accordingly.  I’m constantly learning and refining my skills and am currently studying for an MSc Data Science at the University of Dundee (expected: Distinction). My ethos is that it always starts with the data.</t>
   </si>
 </sst>
 </file>
@@ -1475,12 +1475,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{348A5DB8-CB13-FF44-9743-C24706989ABF}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:X170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -1497,7 +1496,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="40" customHeight="1">
       <c r="A1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>124</v>
@@ -1512,16 +1511,16 @@
         <v>185</v>
       </c>
       <c r="F1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G1" t="s">
+        <v>261</v>
+      </c>
+      <c r="H1" t="s">
         <v>263</v>
       </c>
-      <c r="G1" t="s">
-        <v>262</v>
-      </c>
-      <c r="H1" t="s">
-        <v>264</v>
-      </c>
       <c r="I1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J1" t="s">
         <v>230</v>
@@ -1536,7 +1535,7 @@
         <v>227</v>
       </c>
       <c r="N1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O1" t="s">
         <v>127</v>
@@ -1566,10 +1565,10 @@
         <v>164</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" ht="40" hidden="1" customHeight="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" ht="40" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1655,7 +1654,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="3" spans="1:24" ht="40" customHeight="1">
       <c r="A3">
         <f>A2+1</f>
         <v>2</v>
@@ -1743,7 +1742,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="4" spans="1:24" ht="40" customHeight="1">
       <c r="A4">
         <f t="shared" ref="A4:A67" si="13">A3+1</f>
         <v>3</v>
@@ -1831,7 +1830,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="5" spans="1:24" ht="40" customHeight="1">
       <c r="A5">
         <f t="shared" si="13"/>
         <v>4</v>
@@ -1919,7 +1918,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="6" spans="1:24" ht="40" customHeight="1">
       <c r="A6">
         <f t="shared" si="13"/>
         <v>5</v>
@@ -2007,7 +2006,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="7" spans="1:24" ht="40" customHeight="1">
       <c r="A7">
         <f t="shared" si="13"/>
         <v>6</v>
@@ -2101,7 +2100,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2183,13 +2182,13 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="9" spans="1:24" ht="40" customHeight="1">
       <c r="A9">
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -2271,13 +2270,13 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="10" spans="1:24" ht="40" customHeight="1">
       <c r="A10">
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -2365,7 +2364,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2447,13 +2446,13 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="12" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="12" spans="1:24" ht="40" customHeight="1">
       <c r="A12">
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -2535,13 +2534,13 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="13" spans="1:24" ht="40" customHeight="1">
       <c r="A13">
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -2623,13 +2622,13 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="112">
+    <row r="14" spans="1:24" ht="128">
       <c r="A14">
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>236</v>
+        <v>307</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -2711,7 +2710,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="15" spans="1:24" ht="80" hidden="1">
+    <row r="15" spans="1:24" ht="80">
       <c r="A15">
         <f t="shared" si="13"/>
         <v>14</v>
@@ -2799,7 +2798,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="128" hidden="1">
+    <row r="16" spans="1:24" ht="128">
       <c r="A16">
         <f t="shared" si="13"/>
         <v>15</v>
@@ -2887,7 +2886,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="17" spans="1:24" ht="40" customHeight="1">
       <c r="A17">
         <f t="shared" si="13"/>
         <v>16</v>
@@ -3063,7 +3062,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="19" spans="1:24" ht="40" customHeight="1">
       <c r="A19">
         <f t="shared" si="13"/>
         <v>18</v>
@@ -3151,7 +3150,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="20" spans="1:24" ht="40" customHeight="1">
       <c r="A20">
         <f t="shared" si="13"/>
         <v>19</v>
@@ -3239,7 +3238,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="21" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="21" spans="1:24" ht="40" customHeight="1">
       <c r="A21">
         <f t="shared" si="13"/>
         <v>20</v>
@@ -3327,7 +3326,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="22" spans="1:24" ht="40" customHeight="1">
       <c r="A22">
         <f t="shared" si="13"/>
         <v>21</v>
@@ -3415,7 +3414,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="23" spans="1:24" ht="40" customHeight="1">
       <c r="A23">
         <f t="shared" si="13"/>
         <v>22</v>
@@ -3503,7 +3502,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="24" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="24" spans="1:24" ht="40" customHeight="1">
       <c r="A24">
         <f t="shared" si="13"/>
         <v>23</v>
@@ -3591,7 +3590,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="25" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="25" spans="1:24" ht="40" customHeight="1">
       <c r="A25">
         <f t="shared" si="13"/>
         <v>24</v>
@@ -3679,7 +3678,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="26" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="26" spans="1:24" ht="40" customHeight="1">
       <c r="A26">
         <f t="shared" si="13"/>
         <v>25</v>
@@ -3767,7 +3766,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="27" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="27" spans="1:24" ht="40" customHeight="1">
       <c r="A27">
         <f t="shared" si="13"/>
         <v>26</v>
@@ -3855,7 +3854,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="28" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="28" spans="1:24" ht="40" customHeight="1">
       <c r="A28">
         <f t="shared" si="13"/>
         <v>27</v>
@@ -3943,7 +3942,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="29" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="29" spans="1:24" ht="40" customHeight="1">
       <c r="A29">
         <f t="shared" si="13"/>
         <v>28</v>
@@ -4031,7 +4030,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="30" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="30" spans="1:24" ht="40" customHeight="1">
       <c r="A30">
         <f t="shared" si="13"/>
         <v>29</v>
@@ -4119,7 +4118,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="31" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="31" spans="1:24" ht="40" customHeight="1">
       <c r="A31">
         <f t="shared" si="13"/>
         <v>30</v>
@@ -4207,7 +4206,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="32" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="32" spans="1:24" ht="40" customHeight="1">
       <c r="A32">
         <f t="shared" si="13"/>
         <v>31</v>
@@ -4301,7 +4300,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C33">
         <v>25</v>
@@ -4383,7 +4382,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="34" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="34" spans="1:24" ht="40" customHeight="1">
       <c r="A34">
         <f t="shared" si="13"/>
         <v>33</v>
@@ -4471,7 +4470,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="35" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="35" spans="1:24" ht="40" customHeight="1">
       <c r="A35">
         <f t="shared" si="13"/>
         <v>34</v>
@@ -4559,7 +4558,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="36" spans="1:24" ht="40" customHeight="1">
       <c r="A36">
         <f t="shared" si="13"/>
         <v>35</v>
@@ -4647,7 +4646,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="37" spans="1:24" ht="40" customHeight="1">
       <c r="A37">
         <f t="shared" si="13"/>
         <v>36</v>
@@ -4741,7 +4740,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C38">
         <v>29</v>
@@ -5093,7 +5092,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C42">
         <v>33</v>
@@ -5175,7 +5174,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="43" spans="1:24" ht="40" customHeight="1">
       <c r="A43">
         <f t="shared" si="13"/>
         <v>42</v>
@@ -5263,7 +5262,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="44" spans="1:24" ht="40" customHeight="1">
       <c r="A44">
         <f t="shared" si="13"/>
         <v>43</v>
@@ -5351,7 +5350,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="45" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="45" spans="1:24" ht="40" customHeight="1">
       <c r="A45">
         <f t="shared" si="13"/>
         <v>44</v>
@@ -5439,7 +5438,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="46" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="46" spans="1:24" ht="40" customHeight="1">
       <c r="A46">
         <f t="shared" si="13"/>
         <v>45</v>
@@ -5527,7 +5526,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="47" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="47" spans="1:24" ht="40" customHeight="1">
       <c r="A47">
         <f t="shared" si="13"/>
         <v>46</v>
@@ -5615,7 +5614,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="48" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="48" spans="1:24" ht="40" customHeight="1">
       <c r="A48">
         <f t="shared" si="13"/>
         <v>47</v>
@@ -5703,7 +5702,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="49" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="49" spans="1:24" ht="40" customHeight="1">
       <c r="A49">
         <f t="shared" si="13"/>
         <v>48</v>
@@ -5791,7 +5790,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="50" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="50" spans="1:24" ht="40" customHeight="1">
       <c r="A50">
         <f t="shared" si="13"/>
         <v>49</v>
@@ -5879,7 +5878,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="51" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="51" spans="1:24" ht="40" customHeight="1">
       <c r="A51">
         <f t="shared" si="13"/>
         <v>50</v>
@@ -5967,7 +5966,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="52" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="52" spans="1:24" ht="40" customHeight="1">
       <c r="A52">
         <f t="shared" si="13"/>
         <v>51</v>
@@ -6055,7 +6054,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="53" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="53" spans="1:24" ht="40" customHeight="1">
       <c r="A53">
         <f t="shared" si="13"/>
         <v>52</v>
@@ -6143,7 +6142,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="54" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="54" spans="1:24" ht="40" customHeight="1">
       <c r="A54">
         <f t="shared" si="13"/>
         <v>53</v>
@@ -6231,7 +6230,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="55" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="55" spans="1:24" ht="40" customHeight="1">
       <c r="A55">
         <f t="shared" si="13"/>
         <v>54</v>
@@ -6325,7 +6324,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C56">
         <v>47</v>
@@ -6495,7 +6494,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="58" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="58" spans="1:24" ht="40" customHeight="1">
       <c r="A58">
         <f t="shared" si="13"/>
         <v>57</v>
@@ -6583,7 +6582,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="59" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="59" spans="1:24" ht="40" customHeight="1">
       <c r="A59">
         <f t="shared" si="13"/>
         <v>58</v>
@@ -6671,7 +6670,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="60" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="60" spans="1:24" ht="40" customHeight="1">
       <c r="A60">
         <f t="shared" si="13"/>
         <v>59</v>
@@ -6941,7 +6940,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C63">
         <v>54</v>
@@ -7029,7 +7028,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C64">
         <v>55</v>
@@ -7117,7 +7116,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C65">
         <v>55</v>
@@ -7205,7 +7204,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C66">
         <v>56</v>
@@ -7293,7 +7292,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C67">
         <v>57</v>
@@ -7381,7 +7380,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C68">
         <v>58</v>
@@ -7469,7 +7468,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C69">
         <v>59</v>
@@ -7551,7 +7550,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="70" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="70" spans="1:24" ht="40" customHeight="1">
       <c r="A70">
         <f t="shared" si="38"/>
         <v>69</v>
@@ -7645,7 +7644,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C71">
         <v>61</v>
@@ -7903,7 +7902,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="74" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="74" spans="1:24" ht="40" customHeight="1">
       <c r="A74">
         <f t="shared" si="38"/>
         <v>73</v>
@@ -7991,7 +7990,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="75" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="75" spans="1:24" ht="40" customHeight="1">
       <c r="A75">
         <f t="shared" si="38"/>
         <v>74</v>
@@ -8261,7 +8260,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C78">
         <v>68</v>
@@ -8349,7 +8348,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C79">
         <v>69</v>
@@ -8437,7 +8436,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C80">
         <v>70</v>
@@ -8525,7 +8524,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C81">
         <v>71</v>
@@ -8613,7 +8612,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C82">
         <v>72</v>
@@ -8701,7 +8700,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C83">
         <v>73</v>
@@ -8783,7 +8782,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="84" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="84" spans="1:24" ht="40" customHeight="1">
       <c r="A84">
         <f t="shared" si="38"/>
         <v>83</v>
@@ -8877,7 +8876,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C85">
         <v>76</v>
@@ -9141,7 +9140,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C88">
         <v>79</v>
@@ -9229,7 +9228,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C89">
         <v>80</v>
@@ -9317,7 +9316,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C90">
         <v>81</v>
@@ -9405,7 +9404,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C91">
         <v>82</v>
@@ -9493,7 +9492,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C92">
         <v>83</v>
@@ -9575,7 +9574,7 @@
         <v>42735</v>
       </c>
     </row>
-    <row r="93" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="93" spans="1:24" ht="40" customHeight="1">
       <c r="A93">
         <f t="shared" si="38"/>
         <v>92</v>
@@ -9669,7 +9668,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C94">
         <v>85</v>
@@ -9927,7 +9926,7 @@
         <v>37925</v>
       </c>
     </row>
-    <row r="97" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="97" spans="1:24" ht="40" customHeight="1">
       <c r="A97">
         <f t="shared" si="38"/>
         <v>96</v>
@@ -10015,7 +10014,7 @@
         <v>37925</v>
       </c>
     </row>
-    <row r="98" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="98" spans="1:24" ht="40" customHeight="1">
       <c r="A98">
         <f t="shared" si="38"/>
         <v>97</v>
@@ -10279,7 +10278,7 @@
         <v>37925</v>
       </c>
     </row>
-    <row r="101" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="101" spans="1:24" ht="40" customHeight="1">
       <c r="A101">
         <f t="shared" si="38"/>
         <v>100</v>
@@ -10373,7 +10372,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C102">
         <v>93</v>
@@ -10631,7 +10630,7 @@
         <v>37376</v>
       </c>
     </row>
-    <row r="105" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="105" spans="1:24" ht="40" customHeight="1">
       <c r="A105">
         <f t="shared" si="38"/>
         <v>104</v>
@@ -10719,7 +10718,7 @@
         <v>37376</v>
       </c>
     </row>
-    <row r="106" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="106" spans="1:24" ht="40" customHeight="1">
       <c r="A106">
         <f t="shared" si="38"/>
         <v>105</v>
@@ -11159,7 +11158,7 @@
         <v>37376</v>
       </c>
     </row>
-    <row r="111" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="111" spans="1:24" ht="40" customHeight="1">
       <c r="A111">
         <f t="shared" si="38"/>
         <v>110</v>
@@ -11253,7 +11252,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C112">
         <v>103</v>
@@ -11863,7 +11862,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="119" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="119" spans="1:24" ht="40" customHeight="1">
       <c r="A119">
         <f t="shared" si="38"/>
         <v>118</v>
@@ -11951,7 +11950,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="120" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="120" spans="1:24" ht="40" customHeight="1">
       <c r="A120">
         <f t="shared" si="38"/>
         <v>119</v>
@@ -12127,7 +12126,7 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="122" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="122" spans="1:24" ht="40" customHeight="1">
       <c r="A122">
         <f t="shared" si="38"/>
         <v>121</v>
@@ -14591,7 +14590,7 @@
         <v>34972</v>
       </c>
     </row>
-    <row r="150" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="150" spans="1:24" ht="40" customHeight="1">
       <c r="A150">
         <f t="shared" si="61"/>
         <v>149</v>
@@ -14679,7 +14678,7 @@
         <v>34972</v>
       </c>
     </row>
-    <row r="151" spans="1:24" ht="40" hidden="1" customHeight="1">
+    <row r="151" spans="1:24" ht="40" customHeight="1">
       <c r="A151">
         <f t="shared" si="61"/>
         <v>150</v>
@@ -14773,7 +14772,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C152">
         <v>143</v>
@@ -14861,7 +14860,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C153">
         <v>144</v>
@@ -16440,14 +16439,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X170" xr:uid="{686BF460-D622-F54A-82EF-B4943648BBCC}">
-    <filterColumn colId="5">
-      <customFilters>
-        <customFilter operator="greaterThan" val="0"/>
-        <customFilter val="1"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:X170" xr:uid="{686BF460-D622-F54A-82EF-B4943648BBCC}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J170" xr:uid="{8524CA6A-1649-704D-B146-C2846B5752F1}">
       <formula1>tblRoleType</formula1>
@@ -16479,39 +16471,39 @@
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" t="s">
+        <v>264</v>
+      </c>
+      <c r="G1" t="s">
+        <v>266</v>
+      </c>
+      <c r="O1" t="s">
+        <v>276</v>
+      </c>
+      <c r="P1" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q1" t="s">
         <v>274</v>
-      </c>
-      <c r="F1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G1" t="s">
-        <v>267</v>
-      </c>
-      <c r="O1" t="s">
-        <v>277</v>
-      </c>
-      <c r="P1" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="H2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I2" t="str">
         <f>IF(H2=$H$2,B4&amp;"(Base):",IF(H1=$H$2,"__tablename__='"&amp;B3&amp;"'",IF(B2="NA","",LOWER(A2)&amp;"=")))</f>
@@ -16646,20 +16638,20 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="7"/>
@@ -16731,16 +16723,16 @@
         <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F5">
         <v>8000</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="7"/>
@@ -16812,13 +16804,13 @@
         <v>125</v>
       </c>
       <c r="B6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="7"/>
@@ -16890,13 +16882,13 @@
         <v>126</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="7"/>
@@ -16968,13 +16960,13 @@
         <v>185</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="7"/>
@@ -17043,16 +17035,16 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B9" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="7"/>
@@ -17121,16 +17113,16 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C10" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I10" t="str">
         <f>IF(H10=$H$2,B16&amp;"(Base):",IF(H9=$H$2,"__tablename__='"&amp;B11&amp;"'",IF(B10="NA","",LOWER(A10)&amp;"=")))</f>
@@ -17199,16 +17191,16 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I11" t="str">
         <f>IF(H11=$H$2,B17&amp;"(Base):",IF(H10=$H$2,"__tablename__='"&amp;B16&amp;"'",IF(B11="NA","",LOWER(A11)&amp;"=")))</f>
@@ -17277,19 +17269,19 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" ref="I12:I15" si="22">IF(H12=$H$2,B18&amp;"(Base):",IF(H11=$H$2,"__tablename__='"&amp;B17&amp;"'",IF(B12="NA","",LOWER(A12)&amp;"=")))</f>
@@ -17358,19 +17350,19 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="22"/>
@@ -17439,19 +17431,19 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="8" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B14" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C14" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="22"/>
@@ -17520,19 +17512,19 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B15" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C15" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="22"/>
@@ -17602,7 +17594,7 @@
     <row r="16" spans="1:32">
       <c r="G16" s="6"/>
       <c r="H16" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I16" t="str">
         <f>IF(H16=$H$2,B18&amp;"(Base):",IF(H11=$H$2,"__tablename__='"&amp;B17&amp;"'",IF(B16="NA","",LOWER(A16)&amp;"=")))</f>
@@ -17738,20 +17730,20 @@
     </row>
     <row r="18" spans="1:32" s="8" customFormat="1">
       <c r="A18" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>230</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E18" s="9"/>
       <c r="G18" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="7"/>
@@ -17826,13 +17818,13 @@
         <v>230</v>
       </c>
       <c r="C19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F19">
         <v>50</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="7"/>
@@ -17902,7 +17894,7 @@
     <row r="20" spans="1:32">
       <c r="G20" s="6"/>
       <c r="H20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="7"/>
@@ -18038,20 +18030,20 @@
     </row>
     <row r="22" spans="1:32" s="8" customFormat="1">
       <c r="A22" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E22" s="9"/>
       <c r="G22" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="7"/>
@@ -18126,13 +18118,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F23">
         <v>50</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="7"/>
@@ -18202,7 +18194,7 @@
     <row r="24" spans="1:32">
       <c r="G24" s="6"/>
       <c r="H24" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="7"/>
@@ -18338,20 +18330,20 @@
     </row>
     <row r="26" spans="1:32" s="8" customFormat="1">
       <c r="A26" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E26" s="9"/>
       <c r="G26" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="7"/>
@@ -18426,13 +18418,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F27">
         <v>50</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="7"/>
@@ -18502,7 +18494,7 @@
     <row r="28" spans="1:32">
       <c r="G28" s="6"/>
       <c r="H28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="7"/>
@@ -18638,20 +18630,20 @@
     </row>
     <row r="30" spans="1:32" s="8" customFormat="1">
       <c r="A30" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E30" s="9"/>
       <c r="G30" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="7"/>
@@ -18723,7 +18715,7 @@
         <v>227</v>
       </c>
       <c r="B31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="7"/>
@@ -18792,19 +18784,19 @@
     </row>
     <row r="32" spans="1:32">
       <c r="A32" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C32" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F32">
         <v>255</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="7"/>
@@ -18876,16 +18868,16 @@
         <v>127</v>
       </c>
       <c r="B33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F33">
         <v>255</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="7"/>
@@ -18957,16 +18949,16 @@
         <v>141</v>
       </c>
       <c r="B34" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F34">
         <v>100</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="7"/>
@@ -19038,16 +19030,16 @@
         <v>142</v>
       </c>
       <c r="B35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F35">
         <v>100</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="7"/>
@@ -19119,16 +19111,16 @@
         <v>162</v>
       </c>
       <c r="B36" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C36" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F36">
         <v>100</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="7"/>
@@ -19200,16 +19192,16 @@
         <v>180</v>
       </c>
       <c r="B37" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C37" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F37">
         <v>3</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="7"/>
@@ -19281,13 +19273,13 @@
         <v>163</v>
       </c>
       <c r="B38" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="7"/>
@@ -19359,13 +19351,13 @@
         <v>182</v>
       </c>
       <c r="B39" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C39" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="7"/>
@@ -19437,16 +19429,16 @@
         <v>181</v>
       </c>
       <c r="B40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F40">
         <v>3</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="7"/>
@@ -19518,13 +19510,13 @@
         <v>164</v>
       </c>
       <c r="B41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C41" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="7"/>
@@ -19593,16 +19585,16 @@
     </row>
     <row r="42" spans="1:32">
       <c r="A42" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B42" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C42" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="7"/>
@@ -19671,7 +19663,7 @@
     </row>
     <row r="46" spans="1:32">
       <c r="A46" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B46" t="str">
         <f>SUBSTITUTE(A46,"FK","")</f>
@@ -19684,7 +19676,7 @@
     </row>
     <row r="47" spans="1:32">
       <c r="A47" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" ref="B47:B49" si="29">SUBSTITUTE(A47,"FK","")</f>
@@ -19697,7 +19689,7 @@
     </row>
     <row r="48" spans="1:32">
       <c r="A48" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="29"/>
@@ -19710,7 +19702,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="29"/>
@@ -19786,10 +19778,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C2" t="s">
         <v>145</v>

--- a/Excel/Initial data model.xlsx
+++ b/Excel/Initial data model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermoore/Documents/GitHub/Pete Moore - Data Scientist - CV/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2058AA4A-FFA4-C64A-93B2-6F832D785F15}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A28223-4CC1-0A4F-9468-7091317EAA4F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{F4DDD439-41B3-D540-B38C-F7A1457D80E2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{F4DDD439-41B3-D540-B38C-F7A1457D80E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Flat CV" sheetId="1" r:id="rId1"/>
@@ -135,12 +135,6 @@
     <t>Web spiders using Python</t>
   </si>
   <si>
-    <t>Analsysis, reporting and write-up in R and R Markdown</t>
-  </si>
-  <si>
-    <t>Obejct detection in Tensorflow</t>
-  </si>
-  <si>
     <t>Look at your Data habitually uses a mixture of SQL, R, Python and Power BI to solve problems and build solutions for our clients.</t>
   </si>
   <si>
@@ -183,30 +177,6 @@
     <t>In his time working at Evolution Pete has:</t>
   </si>
   <si>
-    <t>· Scaled up the database from eight users in one office in one country to 150 users in five offices spread across the world</t>
-  </si>
-  <si>
-    <t>· Overseen the introduction of our own private cloud</t>
-  </si>
-  <si>
-    <t>· Built the entire support infrastructure including, but not limited to: introduction of helpdesk, decreasing the maintenance window from fourteen to two hours, enabling 24-hour uptime</t>
-  </si>
-  <si>
-    <t>· Automated countless reports</t>
-  </si>
-  <si>
-    <t>· Devolved our total dependence on a software house (a £100k pa expense) by bringing development in house</t>
-  </si>
-  <si>
-    <t>· Made us Microsoft Gold Partners</t>
-  </si>
-  <si>
-    <t>· Introduced Lean-Agile project management and, in turn, Kanban (so successfully that we now use it in our sales teams as well as our IT team)</t>
-  </si>
-  <si>
-    <t>· Pete’s even contributed to the bottom line bringing in leads worth well over £150K</t>
-  </si>
-  <si>
     <t>What is perhaps more impressive is that Pete barely takes time out to notice any of this. Choosing instead to focus on that which is not yet done, that which could still be improved</t>
   </si>
   <si>
@@ -240,9 +210,6 @@
     <t>Keith Henry, Chief Software Architect, , Evolution Recruitment Solutions.</t>
   </si>
   <si>
-    <t>This period began with the great recession, moved to a period of rapid UK-based expansion and culminated in a small single-brand, single-office, single-country, single-language company, to a multi-national, multiple brand enterprise.</t>
-  </si>
-  <si>
     <t>Skills used: SQL Server 2008, SSAS, SSRS, SSIS, VB.Net, VBA, VB6, ASP.NET, Excel</t>
   </si>
   <si>
@@ -294,9 +261,6 @@
     <t>In my spare time I like to perform stand-up and improv.</t>
   </si>
   <si>
-    <t xml:space="preserve">As one who spends their spare time performing improve and stand-up comedy, it stands to reason that I like public speaking. </t>
-  </si>
-  <si>
     <t>[Pete] is also one of the most entertaining presenters I have had the pleasure to see.</t>
   </si>
   <si>
@@ -741,18 +705,9 @@
     <t>All</t>
   </si>
   <si>
-    <t>As an IT Director I have sat on the board of six companies in the Evolution Recruitment Group. I have also been a non-Executive Director for ManchesterSQL a not-for-profit who educate Manchester's data community via the Manchester SQL Server User Group and the SQL Saturday conference, both of which I helped organise. I am thought leader in the data sector and have spoken publically across the globe. I also mentor SQL Server and Python. Most recently I founded and ran my own company, Look at your Data, a GDPR advisory company.</t>
-  </si>
-  <si>
-    <t>I code T-SQL to an expert level. I have been coding in SQL since 2001. This means that I have spent 10,000 hours (easily!) sat in front of SQL Server Management Studio (SSMS).  I am competent across the SQL Server stack including SQL Server Analysis Services (SSAS), SQL Server Reporting Services (SSRS) and SQL Server Integration Services (SSIS).  I have attended, spoken at and *arranged* SQL Server User Groups and Conferences. I am a thought leader and have spoken publically about SQL Server across the globe. I also mentor SQL Server. I augment my SQL Server skills with skills in associated platforms such as R, Python and Power BI (on which I have also spoken publically). My passion is Data Science and I am presently in the final year of the Data Science Masters Degree at the University of Dundee. My ethos is that it always starts with the data and I am always buttressing my extant skill set with new skills: the problem always comes first.</t>
-  </si>
-  <si>
     <t>Look at your Data delivered GDPR training to medium-sized groups of varied backgrounds, organisations and technical abilities.</t>
   </si>
   <si>
-    <t>For twelve years I worked for the Evolution Group. It was eight people when I started. By the time I left it was an internaional group of six companies. I sat on the board of all. Evolution is the only recruitment business of its size to be recognised as Microsoft Gold Partners.</t>
-  </si>
-  <si>
     <t>It all begins with the data. Evolution had lots of it and a SQL Server. What’s more they had ambition. If that SQL Server was the Millennium Falcon, then I was hired to be R2D2. Initially, I was on a three-month contract to deduplicate the data, soon afterwards I was coding fuzzy matching, proto-Machine Learning and business critical matching algorithms.</t>
   </si>
   <si>
@@ -900,12 +855,6 @@
     <t>NEDFlag</t>
   </si>
   <si>
-    <t>Studying Data Science has taught me the why behind the what of the data things I do. Study has coalesced disparate tasks into a body of knowledge as opposed to a bag of tricks. (It has defnitely taught me there is no such thing as genius!)</t>
-  </si>
-  <si>
-    <t>Finally, my A-level results, of which I emaiproud.</t>
-  </si>
-  <si>
     <t>Microsoft Gold Partners</t>
   </si>
   <si>
@@ -960,7 +909,58 @@
     <t>Elementary machine learning for email analysis.</t>
   </si>
   <si>
-    <t>I have more than two decades’ experience in the data industry, and I love helping organisations get the most from their data. I advise on data strategy. I code at expert level in R, Python and SQL.  I have hands-on experience with the following machine learning and deep learning algorithms and megthodologies: collaborative filters, association rules, k-means, restrcted boltzmann machnes, convoluted neural networks. I have composed code using the following deep learning platforms: Tensorflow, Keras, DL4J.  This list however is not exhaustive because I *strongly* believe that the problem picks the platform and I am always willing to enhance my skill set accordingly.  I’m constantly learning and refining my skills and am currently studying for an MSc Data Science at the University of Dundee (expected: Distinction). My ethos is that it always starts with the data.</t>
+    <t>I have more than two decades’ experience in the data industry, and I love helping organisations get the most from their data. I advise on data strategy. I code at expert level in R, Python and SQL.  I have hands-on experience with the following machine learning and deep learning algorithms and methodologies: collaborative filters, association rules, k-means, restricted Boltzmann machines, convoluted neural networks. I have composed code using the following deep learning platforms: Tensorflow, Keras, DL4J.  This list however is not exhaustive because I *strongly* believe that the problem picks the platform and I am always willing to enhance my skill set accordingly.  I’m constantly learning and refining my skills and am currently studying for an MSc Data Science at the University of Dundee (expected: Distinction). My ethos is that it always starts with the data.</t>
+  </si>
+  <si>
+    <t>As an IT Director I have sat on the board of six companies in the Evolution Recruitment Group. I have also been a non-Executive Director for ManchesterSQL a not-for-profit who educate Manchester's data community via the Manchester SQL Server User Group and the SQL Saturday conference, both of which I helped organise. I am thought leader in the data sector and have spoken publicly across the globe. I also mentor SQL Server and Python. Most recently I founded and ran my own company, Look at your Data, a GDPR advisory company.</t>
+  </si>
+  <si>
+    <t>I code T-SQL to an expert level. I have been coding in SQL since 2001. This means that I have spent 10,000 hours (easily!) sat in front of SQL Server Management Studio (SSMS).  I am competent across the SQL Server stack including SQL Server Analysis Services (SSAS), SQL Server Reporting Services (SSRS) and SQL Server Integration Services (SSIS).  I have attended, spoken at and *arranged* SQL Server User Groups and Conferences. I am a thought leader and have spoken publicly about SQL Server across the globe. I also mentor SQL Server. I augment my SQL Server skills with skills in associated platforms such as R, Python and Power BI (on which I have also spoken publicly). My passion is Data Science and I am presently in the final year of the Data Science Masters Degree at the University of Dundee. My ethos is that it always starts with the data and I am always buttressing my extant skill set with new skills: the problem always comes first.</t>
+  </si>
+  <si>
+    <t>Analysis, reporting and write-up in R and R Markdown</t>
+  </si>
+  <si>
+    <t>Object detection in Tensorflow</t>
+  </si>
+  <si>
+    <t>For twelve years I worked for the Evolution Group. It was eight people when I started. By the time I left it was an international group of six companies. I sat on the board of all. Evolution is the only recruitment business of its size to be recognised as Microsoft Gold Partners.</t>
+  </si>
+  <si>
+    <t>Studying Data Science has taught me the why behind the what of the data things I do. Study has coalesced disparate tasks into a body of knowledge as opposed to a bag of tricks. (It has definitely taught me there is no such thing as genius!)</t>
+  </si>
+  <si>
+    <t>Finally, my A-level results, of which I embargoed.</t>
+  </si>
+  <si>
+    <t>This period began with the great recession, the opportunity create by this led to rapid UK-based expansion and culminated in a small single-brand, single-office, single-country, single-language company being turned into  a multi-national, multiple brand enterprise.</t>
+  </si>
+  <si>
+    <t>Scaled up the database from eight users in one office in one country to 150 users in five offices spread across the world</t>
+  </si>
+  <si>
+    <t>Overseen the introduction of our own private cloud</t>
+  </si>
+  <si>
+    <t>Built the entire support infrastructure including, but not limited to: introduction of helpdesk, decreasing the maintenance window from fourteen to two hours, enabling 24-hour uptime</t>
+  </si>
+  <si>
+    <t>Automated countless reports</t>
+  </si>
+  <si>
+    <t>Devolved our total dependence on a software house (a £100k pa expense) by bringing development in house</t>
+  </si>
+  <si>
+    <t>Made us Microsoft Gold Partners</t>
+  </si>
+  <si>
+    <t>Introduced Lean-Agile project management and, in turn, Kanban (so successfully that we now use it in our sales teams as well as our IT team)</t>
+  </si>
+  <si>
+    <t>Pete’s even contributed to the bottom line bringing in leads worth well over £150K</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As one who spends their spare time performing improv and stand-up comedy, it stands to reason that I like public speaking. </t>
   </si>
 </sst>
 </file>
@@ -1478,8 +1478,8 @@
   <dimension ref="A1:X170"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <pane ySplit="1" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O118" sqref="O118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="40" customHeight="1"/>
@@ -1496,76 +1496,76 @@
   <sheetData>
     <row r="1" spans="1:24" ht="40" customHeight="1">
       <c r="A1" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="F1" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="G1" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="H1" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="I1" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="J1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N1" t="s">
+        <v>244</v>
+      </c>
+      <c r="O1" t="s">
+        <v>115</v>
+      </c>
+      <c r="P1" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>130</v>
+      </c>
+      <c r="R1" t="s">
+        <v>150</v>
+      </c>
+      <c r="S1" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" t="s">
+        <v>151</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="V1" t="s">
+        <v>169</v>
+      </c>
+      <c r="W1" t="s">
+        <v>152</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="K1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" t="s">
-        <v>227</v>
-      </c>
-      <c r="N1" t="s">
-        <v>259</v>
-      </c>
-      <c r="O1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P1" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>142</v>
-      </c>
-      <c r="R1" t="s">
-        <v>162</v>
-      </c>
-      <c r="S1" t="s">
-        <v>180</v>
-      </c>
-      <c r="T1" t="s">
-        <v>163</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="V1" t="s">
-        <v>181</v>
-      </c>
-      <c r="W1" t="s">
-        <v>164</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="40" customHeight="1">
@@ -1597,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K2" t="s">
         <v>2</v>
@@ -1685,7 +1685,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K3" t="s">
         <v>2</v>
@@ -1748,7 +1748,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
@@ -1836,7 +1836,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K5" t="s">
         <v>2</v>
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K6" t="s">
         <v>4</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K7" t="s">
         <v>6</v>
@@ -2100,7 +2100,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="K8" t="s">
         <v>6</v>
@@ -2188,7 +2188,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="K9" t="s">
         <v>6</v>
@@ -2276,7 +2276,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="K10" t="s">
         <v>6</v>
@@ -2364,7 +2364,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="K11" t="s">
         <v>6</v>
@@ -2452,7 +2452,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -2477,7 +2477,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="K12" t="s">
         <v>6</v>
@@ -2540,7 +2540,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -2565,7 +2565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="K13" t="s">
         <v>6</v>
@@ -2628,7 +2628,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K14" t="s">
         <v>7</v>
@@ -2716,7 +2716,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>234</v>
+        <v>291</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -2741,7 +2741,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K15" t="s">
         <v>7</v>
@@ -2804,7 +2804,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>235</v>
+        <v>292</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K16" t="s">
         <v>7</v>
@@ -2917,7 +2917,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K17" t="s">
         <v>4</v>
@@ -2980,7 +2980,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -3005,7 +3005,7 @@
         <v>1</v>
       </c>
       <c r="J18" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K18" t="s">
         <v>9</v>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K19" t="s">
         <v>7</v>
@@ -3181,7 +3181,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K20" t="s">
         <v>10</v>
@@ -3269,7 +3269,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s">
         <v>7</v>
@@ -3357,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K22" t="s">
         <v>12</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K23" t="s">
         <v>12</v>
@@ -3533,7 +3533,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K24" t="s">
         <v>11</v>
@@ -3596,7 +3596,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>32</v>
+        <v>293</v>
       </c>
       <c r="C25">
         <v>17</v>
@@ -3621,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K25" t="s">
         <v>11</v>
@@ -3684,7 +3684,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>33</v>
+        <v>294</v>
       </c>
       <c r="C26">
         <v>18</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K26" t="s">
         <v>11</v>
@@ -3772,7 +3772,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>19</v>
@@ -3797,7 +3797,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K27" t="s">
         <v>7</v>
@@ -3860,7 +3860,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28">
         <v>20</v>
@@ -3885,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K28" t="s">
         <v>12</v>
@@ -3948,7 +3948,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29">
         <v>21</v>
@@ -3973,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K29" t="s">
         <v>12</v>
@@ -4036,7 +4036,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C30">
         <v>22</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K30" t="s">
         <v>12</v>
@@ -4124,7 +4124,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31">
         <v>23</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K31" t="s">
         <v>7</v>
@@ -4212,7 +4212,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32">
         <v>24</v>
@@ -4237,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K32" t="s">
         <v>10</v>
@@ -4300,7 +4300,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="C33">
         <v>25</v>
@@ -4325,7 +4325,7 @@
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K33" t="s">
         <v>7</v>
@@ -4388,7 +4388,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34">
         <v>25</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K34" t="s">
         <v>7</v>
@@ -4476,7 +4476,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35">
         <v>26</v>
@@ -4501,7 +4501,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K35" t="s">
         <v>12</v>
@@ -4564,7 +4564,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C36">
         <v>27</v>
@@ -4589,7 +4589,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K36" t="s">
         <v>12</v>
@@ -4652,7 +4652,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <v>28</v>
@@ -4677,7 +4677,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K37" t="s">
         <v>13</v>
@@ -4740,7 +4740,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="C38">
         <v>29</v>
@@ -4765,7 +4765,7 @@
         <v>1</v>
       </c>
       <c r="J38" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K38" t="s">
         <v>14</v>
@@ -4828,7 +4828,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C39">
         <v>30</v>
@@ -4853,7 +4853,7 @@
         <v>1</v>
       </c>
       <c r="J39" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K39" t="s">
         <v>9</v>
@@ -4916,7 +4916,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C40">
         <v>31</v>
@@ -4941,7 +4941,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K40" t="s">
         <v>7</v>
@@ -5004,7 +5004,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C41">
         <v>32</v>
@@ -5029,7 +5029,7 @@
         <v>1</v>
       </c>
       <c r="J41" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K41" t="s">
         <v>9</v>
@@ -5092,7 +5092,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>237</v>
+        <v>295</v>
       </c>
       <c r="C42">
         <v>33</v>
@@ -5117,7 +5117,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K42" t="s">
         <v>7</v>
@@ -5180,7 +5180,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43">
         <v>34</v>
@@ -5205,7 +5205,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K43" t="s">
         <v>12</v>
@@ -5268,7 +5268,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C44">
         <v>35</v>
@@ -5293,7 +5293,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K44" t="s">
         <v>12</v>
@@ -5356,7 +5356,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C45">
         <v>36</v>
@@ -5381,7 +5381,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K45" t="s">
         <v>12</v>
@@ -5444,7 +5444,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>48</v>
+        <v>299</v>
       </c>
       <c r="C46">
         <v>37</v>
@@ -5469,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K46" t="s">
         <v>12</v>
@@ -5532,7 +5532,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>49</v>
+        <v>300</v>
       </c>
       <c r="C47">
         <v>38</v>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K47" t="s">
         <v>12</v>
@@ -5620,7 +5620,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>50</v>
+        <v>301</v>
       </c>
       <c r="C48">
         <v>39</v>
@@ -5645,7 +5645,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K48" t="s">
         <v>12</v>
@@ -5708,7 +5708,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>51</v>
+        <v>302</v>
       </c>
       <c r="C49">
         <v>40</v>
@@ -5733,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K49" t="s">
         <v>12</v>
@@ -5796,7 +5796,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>52</v>
+        <v>303</v>
       </c>
       <c r="C50">
         <v>41</v>
@@ -5821,7 +5821,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K50" t="s">
         <v>12</v>
@@ -5884,7 +5884,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>53</v>
+        <v>304</v>
       </c>
       <c r="C51">
         <v>42</v>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K51" t="s">
         <v>12</v>
@@ -5972,7 +5972,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>54</v>
+        <v>305</v>
       </c>
       <c r="C52">
         <v>43</v>
@@ -5997,7 +5997,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K52" t="s">
         <v>12</v>
@@ -6060,7 +6060,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>55</v>
+        <v>306</v>
       </c>
       <c r="C53">
         <v>44</v>
@@ -6085,7 +6085,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K53" t="s">
         <v>12</v>
@@ -6148,7 +6148,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C54">
         <v>45</v>
@@ -6173,7 +6173,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K54" t="s">
         <v>12</v>
@@ -6236,7 +6236,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C55">
         <v>46</v>
@@ -6261,7 +6261,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K55" t="s">
         <v>12</v>
@@ -6324,7 +6324,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C56">
         <v>47</v>
@@ -6349,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K56" t="s">
         <v>7</v>
@@ -6412,7 +6412,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C57">
         <v>48</v>
@@ -6437,7 +6437,7 @@
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K57" t="s">
         <v>10</v>
@@ -6500,7 +6500,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C58">
         <v>49</v>
@@ -6525,7 +6525,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K58" t="s">
         <v>7</v>
@@ -6588,7 +6588,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C59">
         <v>50</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K59" t="s">
         <v>12</v>
@@ -6676,7 +6676,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="C60">
         <v>51</v>
@@ -6701,7 +6701,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K60" t="s">
         <v>12</v>
@@ -6764,7 +6764,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C61">
         <v>52</v>
@@ -6789,7 +6789,7 @@
         <v>1</v>
       </c>
       <c r="J61" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K61" t="s">
         <v>7</v>
@@ -6852,7 +6852,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C62">
         <v>53</v>
@@ -6865,19 +6865,19 @@
         <v>29</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K62" t="s">
         <v>11</v>
@@ -6940,7 +6940,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="C63">
         <v>54</v>
@@ -6953,7 +6953,7 @@
         <v>29</v>
       </c>
       <c r="F63">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G63">
         <v>2</v>
@@ -6965,7 +6965,7 @@
         <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K63" t="s">
         <v>11</v>
@@ -7028,7 +7028,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="C64">
         <v>55</v>
@@ -7041,7 +7041,7 @@
         <v>29</v>
       </c>
       <c r="F64">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G64">
         <v>1</v>
@@ -7053,7 +7053,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K64" t="s">
         <v>11</v>
@@ -7116,7 +7116,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="C65">
         <v>55</v>
@@ -7129,7 +7129,7 @@
         <v>29</v>
       </c>
       <c r="F65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G65">
         <v>6</v>
@@ -7141,7 +7141,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K65" t="s">
         <v>11</v>
@@ -7204,7 +7204,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="C66">
         <v>56</v>
@@ -7217,7 +7217,7 @@
         <v>29</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66">
         <v>5</v>
@@ -7229,7 +7229,7 @@
         <v>5</v>
       </c>
       <c r="J66" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K66" t="s">
         <v>11</v>
@@ -7292,7 +7292,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="C67">
         <v>57</v>
@@ -7305,7 +7305,7 @@
         <v>29</v>
       </c>
       <c r="F67">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G67">
         <v>7</v>
@@ -7317,7 +7317,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K67" t="s">
         <v>11</v>
@@ -7380,7 +7380,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="C68">
         <v>58</v>
@@ -7393,7 +7393,7 @@
         <v>29</v>
       </c>
       <c r="F68">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G68">
         <v>4</v>
@@ -7405,7 +7405,7 @@
         <v>4</v>
       </c>
       <c r="J68" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K68" t="s">
         <v>11</v>
@@ -7468,7 +7468,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="C69">
         <v>59</v>
@@ -7481,7 +7481,7 @@
         <v>29</v>
       </c>
       <c r="F69">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G69">
         <v>3</v>
@@ -7493,7 +7493,7 @@
         <v>3</v>
       </c>
       <c r="J69" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K69" t="s">
         <v>11</v>
@@ -7556,7 +7556,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C70">
         <v>60</v>
@@ -7581,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K70" t="s">
         <v>13</v>
@@ -7644,7 +7644,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="C71">
         <v>61</v>
@@ -7669,7 +7669,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K71" t="s">
         <v>14</v>
@@ -7732,7 +7732,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="C72">
         <v>62</v>
@@ -7757,7 +7757,7 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K72" t="s">
         <v>10</v>
@@ -7820,7 +7820,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C73">
         <v>63</v>
@@ -7845,7 +7845,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K73" t="s">
         <v>7</v>
@@ -7908,7 +7908,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C74">
         <v>64</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K74" t="s">
         <v>12</v>
@@ -7996,7 +7996,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C75">
         <v>65</v>
@@ -8021,7 +8021,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K75" t="s">
         <v>12</v>
@@ -8084,7 +8084,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>67</v>
+        <v>298</v>
       </c>
       <c r="C76">
         <v>66</v>
@@ -8109,7 +8109,7 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K76" t="s">
         <v>7</v>
@@ -8172,7 +8172,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C77">
         <v>67</v>
@@ -8185,19 +8185,19 @@
         <v>36</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K77" t="s">
         <v>11</v>
@@ -8260,7 +8260,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C78">
         <v>68</v>
@@ -8285,7 +8285,7 @@
         <v>4</v>
       </c>
       <c r="J78" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K78" t="s">
         <v>11</v>
@@ -8348,7 +8348,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="C79">
         <v>69</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K79" t="s">
         <v>11</v>
@@ -8436,7 +8436,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="C80">
         <v>70</v>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K80" t="s">
         <v>11</v>
@@ -8524,7 +8524,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="C81">
         <v>71</v>
@@ -8549,7 +8549,7 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K81" t="s">
         <v>11</v>
@@ -8612,7 +8612,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="C82">
         <v>72</v>
@@ -8637,7 +8637,7 @@
         <v>2</v>
       </c>
       <c r="J82" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K82" t="s">
         <v>11</v>
@@ -8700,7 +8700,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="C83">
         <v>73</v>
@@ -8725,7 +8725,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K83" t="s">
         <v>11</v>
@@ -8788,7 +8788,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C84">
         <v>75</v>
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K84" t="s">
         <v>13</v>
@@ -8876,7 +8876,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C85">
         <v>76</v>
@@ -8901,7 +8901,7 @@
         <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K85" t="s">
         <v>14</v>
@@ -8964,7 +8964,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C86">
         <v>77</v>
@@ -8989,7 +8989,7 @@
         <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K86" t="s">
         <v>10</v>
@@ -9052,7 +9052,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C87">
         <v>78</v>
@@ -9077,7 +9077,7 @@
         <v>1</v>
       </c>
       <c r="J87" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K87" t="s">
         <v>7</v>
@@ -9140,7 +9140,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C88">
         <v>79</v>
@@ -9165,7 +9165,7 @@
         <v>1</v>
       </c>
       <c r="J88" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K88" t="s">
         <v>11</v>
@@ -9228,7 +9228,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>303</v>
+        <v>286</v>
       </c>
       <c r="C89">
         <v>80</v>
@@ -9253,7 +9253,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K89" t="s">
         <v>11</v>
@@ -9316,7 +9316,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="C90">
         <v>81</v>
@@ -9341,7 +9341,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K90" t="s">
         <v>11</v>
@@ -9404,7 +9404,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="C91">
         <v>82</v>
@@ -9429,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K91" t="s">
         <v>11</v>
@@ -9492,7 +9492,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C92">
         <v>83</v>
@@ -9517,7 +9517,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K92" t="s">
         <v>11</v>
@@ -9580,7 +9580,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C93">
         <v>84</v>
@@ -9605,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K93" t="s">
         <v>13</v>
@@ -9668,7 +9668,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="C94">
         <v>85</v>
@@ -9693,7 +9693,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K94" t="s">
         <v>14</v>
@@ -9756,7 +9756,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C95">
         <v>86</v>
@@ -9781,7 +9781,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K95" t="s">
         <v>9</v>
@@ -9844,7 +9844,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C96">
         <v>87</v>
@@ -9869,7 +9869,7 @@
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K96" t="s">
         <v>7</v>
@@ -9932,7 +9932,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="C97">
         <v>88</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K97" t="s">
         <v>12</v>
@@ -10020,7 +10020,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C98">
         <v>89</v>
@@ -10045,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K98" t="s">
         <v>12</v>
@@ -10108,7 +10108,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C99">
         <v>90</v>
@@ -10133,7 +10133,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K99" t="s">
         <v>10</v>
@@ -10196,7 +10196,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="C100">
         <v>91</v>
@@ -10221,7 +10221,7 @@
         <v>1</v>
       </c>
       <c r="J100" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K100" t="s">
         <v>7</v>
@@ -10284,7 +10284,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C101">
         <v>92</v>
@@ -10309,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K101" t="s">
         <v>13</v>
@@ -10372,7 +10372,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="C102">
         <v>93</v>
@@ -10397,7 +10397,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K102" t="s">
         <v>14</v>
@@ -10460,7 +10460,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="C103">
         <v>94</v>
@@ -10485,7 +10485,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K103" t="s">
         <v>9</v>
@@ -10548,7 +10548,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C104">
         <v>95</v>
@@ -10573,7 +10573,7 @@
         <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K104" t="s">
         <v>7</v>
@@ -10636,7 +10636,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="C105">
         <v>96</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K105" t="s">
         <v>12</v>
@@ -10724,7 +10724,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C106">
         <v>97</v>
@@ -10749,7 +10749,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K106" t="s">
         <v>12</v>
@@ -10812,7 +10812,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="C107">
         <v>98</v>
@@ -10837,7 +10837,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K107" t="s">
         <v>10</v>
@@ -10900,7 +10900,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="C108">
         <v>99</v>
@@ -10925,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K108" t="s">
         <v>7</v>
@@ -10988,7 +10988,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C109">
         <v>100</v>
@@ -11013,7 +11013,7 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K109" t="s">
         <v>10</v>
@@ -11076,7 +11076,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="C110">
         <v>101</v>
@@ -11101,7 +11101,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K110" t="s">
         <v>7</v>
@@ -11164,7 +11164,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C111">
         <v>102</v>
@@ -11189,7 +11189,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K111" t="s">
         <v>13</v>
@@ -11252,7 +11252,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C112">
         <v>103</v>
@@ -11277,7 +11277,7 @@
         <v>1</v>
       </c>
       <c r="J112" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K112" t="s">
         <v>14</v>
@@ -11365,7 +11365,7 @@
         <v>1</v>
       </c>
       <c r="J113" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K113" t="s">
         <v>4</v>
@@ -11428,7 +11428,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C114">
         <v>105</v>
@@ -11453,7 +11453,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K114" t="s">
         <v>7</v>
@@ -11516,7 +11516,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="C115">
         <v>106</v>
@@ -11541,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K115" t="s">
         <v>7</v>
@@ -11604,7 +11604,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C116">
         <v>107</v>
@@ -11629,7 +11629,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K116" t="s">
         <v>7</v>
@@ -11717,7 +11717,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K117" t="s">
         <v>4</v>
@@ -11780,7 +11780,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>85</v>
+        <v>307</v>
       </c>
       <c r="C118">
         <v>109</v>
@@ -11805,7 +11805,7 @@
         <v>1</v>
       </c>
       <c r="J118" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K118" t="s">
         <v>7</v>
@@ -11868,7 +11868,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C119">
         <v>110</v>
@@ -11893,7 +11893,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K119" t="s">
         <v>12</v>
@@ -11956,7 +11956,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="C120">
         <v>111</v>
@@ -11981,7 +11981,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K120" t="s">
         <v>12</v>
@@ -12044,7 +12044,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C121">
         <v>112</v>
@@ -12069,7 +12069,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K121" t="s">
         <v>7</v>
@@ -12132,7 +12132,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C122">
         <v>113</v>
@@ -12157,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K122" t="s">
         <v>7</v>
@@ -12245,7 +12245,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K123" t="s">
         <v>4</v>
@@ -12308,7 +12308,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="7" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C124">
         <v>115</v>
@@ -12333,7 +12333,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K124" t="s">
         <v>7</v>
@@ -12396,7 +12396,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C125">
         <v>116</v>
@@ -12421,7 +12421,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K125" t="s">
         <v>9</v>
@@ -12484,7 +12484,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C126">
         <v>117</v>
@@ -12509,7 +12509,7 @@
         <v>1</v>
       </c>
       <c r="J126" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K126" t="s">
         <v>10</v>
@@ -12572,7 +12572,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C127">
         <v>118</v>
@@ -12597,7 +12597,7 @@
         <v>1</v>
       </c>
       <c r="J127" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K127" t="s">
         <v>7</v>
@@ -12660,7 +12660,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C128">
         <v>119</v>
@@ -12685,7 +12685,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K128" t="s">
         <v>9</v>
@@ -12748,7 +12748,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="C129">
         <v>120</v>
@@ -12773,7 +12773,7 @@
         <v>1</v>
       </c>
       <c r="J129" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K129" t="s">
         <v>10</v>
@@ -12836,7 +12836,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C130">
         <v>121</v>
@@ -12861,7 +12861,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K130" t="s">
         <v>7</v>
@@ -12924,7 +12924,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="C131">
         <v>122</v>
@@ -12949,7 +12949,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K131" t="s">
         <v>9</v>
@@ -13012,7 +13012,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C132">
         <v>123</v>
@@ -13037,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K132" t="s">
         <v>10</v>
@@ -13100,7 +13100,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C133">
         <v>124</v>
@@ -13125,7 +13125,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K133" t="s">
         <v>7</v>
@@ -13213,7 +13213,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K134" t="s">
         <v>4</v>
@@ -13276,7 +13276,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C135">
         <v>126</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K135" t="s">
         <v>7</v>
@@ -13364,7 +13364,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C136">
         <v>127</v>
@@ -13389,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K136" t="s">
         <v>9</v>
@@ -13452,7 +13452,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C137">
         <v>128</v>
@@ -13477,7 +13477,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K137" t="s">
         <v>10</v>
@@ -13540,7 +13540,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C138">
         <v>129</v>
@@ -13565,7 +13565,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K138" t="s">
         <v>14</v>
@@ -13628,7 +13628,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C139">
         <v>130</v>
@@ -13653,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K139" t="s">
         <v>9</v>
@@ -13716,7 +13716,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C140">
         <v>131</v>
@@ -13741,7 +13741,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K140" t="s">
         <v>10</v>
@@ -13804,7 +13804,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C141">
         <v>132</v>
@@ -13829,7 +13829,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K141" t="s">
         <v>14</v>
@@ -13892,7 +13892,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C142">
         <v>133</v>
@@ -13917,7 +13917,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K142" t="s">
         <v>9</v>
@@ -13980,7 +13980,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C143">
         <v>134</v>
@@ -14005,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K143" t="s">
         <v>10</v>
@@ -14068,7 +14068,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C144">
         <v>135</v>
@@ -14093,7 +14093,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K144" t="s">
         <v>14</v>
@@ -14156,7 +14156,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C145">
         <v>136</v>
@@ -14181,7 +14181,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K145" t="s">
         <v>9</v>
@@ -14244,7 +14244,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C146">
         <v>137</v>
@@ -14269,7 +14269,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K146" t="s">
         <v>10</v>
@@ -14332,7 +14332,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C147">
         <v>138</v>
@@ -14357,7 +14357,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K147" t="s">
         <v>14</v>
@@ -14445,7 +14445,7 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K148" t="s">
         <v>4</v>
@@ -14508,7 +14508,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C149">
         <v>140</v>
@@ -14533,7 +14533,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K149" t="s">
         <v>7</v>
@@ -14596,7 +14596,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C150">
         <v>141</v>
@@ -14621,7 +14621,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K150" t="s">
         <v>12</v>
@@ -14684,7 +14684,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C151">
         <v>142</v>
@@ -14709,7 +14709,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K151" t="s">
         <v>12</v>
@@ -14772,7 +14772,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="C152">
         <v>143</v>
@@ -14797,7 +14797,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K152" t="s">
         <v>7</v>
@@ -14860,7 +14860,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="C153">
         <v>144</v>
@@ -14885,7 +14885,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K153" t="s">
         <v>7</v>
@@ -14948,7 +14948,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C154">
         <v>145</v>
@@ -14973,7 +14973,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K154" t="s">
         <v>9</v>
@@ -15036,7 +15036,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C155">
         <v>146</v>
@@ -15061,7 +15061,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K155" t="s">
         <v>10</v>
@@ -15124,7 +15124,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C156">
         <v>147</v>
@@ -15149,7 +15149,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K156" t="s">
         <v>20</v>
@@ -15212,7 +15212,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C157">
         <v>148</v>
@@ -15237,7 +15237,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K157" t="s">
         <v>9</v>
@@ -15300,7 +15300,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C158">
         <v>149</v>
@@ -15325,7 +15325,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K158" t="s">
         <v>10</v>
@@ -15388,7 +15388,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C159">
         <v>150</v>
@@ -15413,7 +15413,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K159" t="s">
         <v>20</v>
@@ -15476,7 +15476,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C160">
         <v>151</v>
@@ -15501,7 +15501,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K160" t="s">
         <v>9</v>
@@ -15564,7 +15564,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C161">
         <v>152</v>
@@ -15589,7 +15589,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K161" t="s">
         <v>10</v>
@@ -15652,7 +15652,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="C162">
         <v>153</v>
@@ -15677,7 +15677,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K162" t="s">
         <v>20</v>
@@ -15740,7 +15740,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C163">
         <v>154</v>
@@ -15765,7 +15765,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K163" t="s">
         <v>10</v>
@@ -15828,7 +15828,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C164">
         <v>155</v>
@@ -15853,7 +15853,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K164" t="s">
         <v>20</v>
@@ -15916,7 +15916,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C165">
         <v>156</v>
@@ -15941,7 +15941,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K165" t="s">
         <v>10</v>
@@ -16004,7 +16004,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C166">
         <v>157</v>
@@ -16029,7 +16029,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K166" t="s">
         <v>20</v>
@@ -16092,7 +16092,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C167">
         <v>158</v>
@@ -16117,7 +16117,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K167" t="s">
         <v>10</v>
@@ -16180,7 +16180,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="C168">
         <v>159</v>
@@ -16205,7 +16205,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K168" t="s">
         <v>20</v>
@@ -16268,7 +16268,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C169">
         <v>160</v>
@@ -16293,7 +16293,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K169" t="s">
         <v>10</v>
@@ -16356,7 +16356,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="C170">
         <v>161</v>
@@ -16381,7 +16381,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="K170" t="s">
         <v>20</v>
@@ -16471,39 +16471,39 @@
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="B1" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="C1" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="D1" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E1" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="F1" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="G1" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="O1" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="P1" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="Q1" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="H2" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="I2" t="str">
         <f>IF(H2=$H$2,B4&amp;"(Base):",IF(H1=$H$2,"__tablename__='"&amp;B3&amp;"'",IF(B2="NA","",LOWER(A2)&amp;"=")))</f>
@@ -16638,20 +16638,20 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="8" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="7"/>
@@ -16720,19 +16720,19 @@
     </row>
     <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F5">
         <v>8000</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="7"/>
@@ -16801,16 +16801,16 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="7"/>
@@ -16879,16 +16879,16 @@
     </row>
     <row r="7" spans="1:32">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="B7" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C7" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="7"/>
@@ -16957,16 +16957,16 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B8" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C8" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="7"/>
@@ -17035,16 +17035,16 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B9" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="7"/>
@@ -17113,16 +17113,16 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="B10" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C10" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I10" t="str">
         <f>IF(H10=$H$2,B16&amp;"(Base):",IF(H9=$H$2,"__tablename__='"&amp;B11&amp;"'",IF(B10="NA","",LOWER(A10)&amp;"=")))</f>
@@ -17191,16 +17191,16 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="B11" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C11" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I11" t="str">
         <f>IF(H11=$H$2,B17&amp;"(Base):",IF(H10=$H$2,"__tablename__='"&amp;B16&amp;"'",IF(B11="NA","",LOWER(A11)&amp;"=")))</f>
@@ -17269,19 +17269,19 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="8" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B12" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C12" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" ref="I12:I15" si="22">IF(H12=$H$2,B18&amp;"(Base):",IF(H11=$H$2,"__tablename__='"&amp;B17&amp;"'",IF(B12="NA","",LOWER(A12)&amp;"=")))</f>
@@ -17350,19 +17350,19 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="8" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B13" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C13" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="22"/>
@@ -17431,19 +17431,19 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="8" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B14" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="22"/>
@@ -17512,19 +17512,19 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="8" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B15" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="C15" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="22"/>
@@ -17594,7 +17594,7 @@
     <row r="16" spans="1:32">
       <c r="G16" s="6"/>
       <c r="H16" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="I16" t="str">
         <f>IF(H16=$H$2,B18&amp;"(Base):",IF(H11=$H$2,"__tablename__='"&amp;B17&amp;"'",IF(B16="NA","",LOWER(A16)&amp;"=")))</f>
@@ -17730,20 +17730,20 @@
     </row>
     <row r="18" spans="1:32" s="8" customFormat="1">
       <c r="A18" s="8" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E18" s="9"/>
       <c r="G18" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="7"/>
@@ -17812,19 +17812,19 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C19" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F19">
         <v>50</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="7"/>
@@ -17894,7 +17894,7 @@
     <row r="20" spans="1:32">
       <c r="G20" s="6"/>
       <c r="H20" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="7"/>
@@ -18030,20 +18030,20 @@
     </row>
     <row r="22" spans="1:32" s="8" customFormat="1">
       <c r="A22" s="8" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E22" s="9"/>
       <c r="G22" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="7"/>
@@ -18118,13 +18118,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F23">
         <v>50</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="7"/>
@@ -18194,7 +18194,7 @@
     <row r="24" spans="1:32">
       <c r="G24" s="6"/>
       <c r="H24" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="7"/>
@@ -18330,20 +18330,20 @@
     </row>
     <row r="26" spans="1:32" s="8" customFormat="1">
       <c r="A26" s="8" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E26" s="9"/>
       <c r="G26" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="7"/>
@@ -18418,13 +18418,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F27">
         <v>50</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="7"/>
@@ -18494,7 +18494,7 @@
     <row r="28" spans="1:32">
       <c r="G28" s="6"/>
       <c r="H28" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="7"/>
@@ -18630,20 +18630,20 @@
     </row>
     <row r="30" spans="1:32" s="8" customFormat="1">
       <c r="A30" s="8" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="E30" s="9"/>
       <c r="G30" s="6" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="7"/>
@@ -18712,10 +18712,10 @@
     </row>
     <row r="31" spans="1:32">
       <c r="A31" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B31" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="7"/>
@@ -18784,19 +18784,19 @@
     </row>
     <row r="32" spans="1:32">
       <c r="A32" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="B32" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C32" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F32">
         <v>255</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="7"/>
@@ -18865,19 +18865,19 @@
     </row>
     <row r="33" spans="1:32">
       <c r="A33" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C33" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F33">
         <v>255</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="7"/>
@@ -18946,19 +18946,19 @@
     </row>
     <row r="34" spans="1:32">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B34" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C34" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F34">
         <v>100</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="7"/>
@@ -19027,19 +19027,19 @@
     </row>
     <row r="35" spans="1:32">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B35" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C35" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F35">
         <v>100</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="7"/>
@@ -19108,19 +19108,19 @@
     </row>
     <row r="36" spans="1:32">
       <c r="A36" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B36" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C36" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F36">
         <v>100</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="7"/>
@@ -19189,19 +19189,19 @@
     </row>
     <row r="37" spans="1:32">
       <c r="A37" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B37" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C37" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F37">
         <v>3</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="7"/>
@@ -19270,16 +19270,16 @@
     </row>
     <row r="38" spans="1:32">
       <c r="A38" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B38" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C38" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="7"/>
@@ -19348,16 +19348,16 @@
     </row>
     <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B39" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C39" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="7"/>
@@ -19426,19 +19426,19 @@
     </row>
     <row r="40" spans="1:32">
       <c r="A40" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B40" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C40" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="F40">
         <v>3</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="7"/>
@@ -19507,16 +19507,16 @@
     </row>
     <row r="41" spans="1:32">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B41" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C41" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="7"/>
@@ -19585,16 +19585,16 @@
     </row>
     <row r="42" spans="1:32">
       <c r="A42" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="B42" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="C42" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="7"/>
@@ -19663,7 +19663,7 @@
     </row>
     <row r="46" spans="1:32">
       <c r="A46" s="10" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="B46" t="str">
         <f>SUBSTITUTE(A46,"FK","")</f>
@@ -19676,7 +19676,7 @@
     </row>
     <row r="47" spans="1:32">
       <c r="A47" s="10" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" ref="B47:B49" si="29">SUBSTITUTE(A47,"FK","")</f>
@@ -19689,7 +19689,7 @@
     </row>
     <row r="48" spans="1:32">
       <c r="A48" s="10" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="29"/>
@@ -19702,7 +19702,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="10" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="29"/>
@@ -19731,17 +19731,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -19764,198 +19764,198 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D3" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C4" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="D6" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D8" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C10" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="C11" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="D11" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C14" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D14" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -19978,16 +19978,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="C1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E1" t="str">
         <f>"# inspired by "&amp;A1</f>
@@ -19996,7 +19996,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B2">
         <f>IF(ISERR(FIND(B$1,$A2)),"",FIND(B$1,$A2))</f>
@@ -20017,7 +20017,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:C17" si="0">IF(ISERR(FIND("""",$A3)),"",FIND("""",$A3))</f>
@@ -20038,7 +20038,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
@@ -20059,7 +20059,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
@@ -20080,7 +20080,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -20101,7 +20101,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -20122,7 +20122,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -20143,7 +20143,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -20164,7 +20164,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -20185,7 +20185,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -20206,7 +20206,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -20227,7 +20227,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -20248,7 +20248,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -20269,7 +20269,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -20290,7 +20290,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -20311,7 +20311,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -20355,16 +20355,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C1" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="D1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="E1" t="str">
         <f>"# inspired by "&amp;A1</f>
@@ -20374,12 +20374,12 @@
     <row r="2" spans="1:5">
       <c r="A2" s="3"/>
       <c r="E2" s="6" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17">
       <c r="A3" s="5" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B3">
         <f>IF(ISERR(FIND(B$1,$A3)),"",FIND(B$1,$A3))</f>
@@ -20400,7 +20400,7 @@
     </row>
     <row r="4" spans="1:5" ht="17">
       <c r="A4" s="5" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B27" si="0">IF(ISERR(FIND(B$1,$A4)),"",FIND(B$1,$A4))</f>
@@ -20421,7 +20421,7 @@
     </row>
     <row r="5" spans="1:5" ht="17">
       <c r="A5" s="5" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
@@ -20460,7 +20460,7 @@
     </row>
     <row r="7" spans="1:5" ht="17">
       <c r="A7" s="5" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -20481,7 +20481,7 @@
     </row>
     <row r="8" spans="1:5" ht="17">
       <c r="A8" s="5" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -20502,7 +20502,7 @@
     </row>
     <row r="9" spans="1:5" ht="17">
       <c r="A9" s="5" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -20523,7 +20523,7 @@
     </row>
     <row r="10" spans="1:5" ht="17">
       <c r="A10" s="5" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -20544,7 +20544,7 @@
     </row>
     <row r="11" spans="1:5" ht="17">
       <c r="A11" s="5" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -20583,7 +20583,7 @@
     </row>
     <row r="13" spans="1:5" ht="17">
       <c r="A13" s="5" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -20604,7 +20604,7 @@
     </row>
     <row r="14" spans="1:5" ht="17">
       <c r="A14" s="5" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -20625,7 +20625,7 @@
     </row>
     <row r="15" spans="1:5" ht="17">
       <c r="A15" s="5" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -20646,7 +20646,7 @@
     </row>
     <row r="16" spans="1:5" ht="17">
       <c r="A16" s="5" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -20667,7 +20667,7 @@
     </row>
     <row r="17" spans="1:5" ht="17">
       <c r="A17" s="5" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -20706,7 +20706,7 @@
     </row>
     <row r="19" spans="1:5" ht="17">
       <c r="A19" s="5" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -20727,7 +20727,7 @@
     </row>
     <row r="20" spans="1:5" ht="17">
       <c r="A20" s="5" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -20748,7 +20748,7 @@
     </row>
     <row r="21" spans="1:5" ht="17">
       <c r="A21" s="5" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
@@ -20769,7 +20769,7 @@
     </row>
     <row r="22" spans="1:5" ht="17">
       <c r="A22" s="5" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -20790,7 +20790,7 @@
     </row>
     <row r="23" spans="1:5" ht="17">
       <c r="A23" s="5" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -20811,7 +20811,7 @@
     </row>
     <row r="24" spans="1:5" ht="17">
       <c r="A24" s="5" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -20850,7 +20850,7 @@
     </row>
     <row r="26" spans="1:5" ht="17">
       <c r="A26" s="5" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -20871,7 +20871,7 @@
     </row>
     <row r="27" spans="1:5" ht="17">
       <c r="A27" s="5" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>

--- a/Excel/Initial data model.xlsx
+++ b/Excel/Initial data model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermoore/Documents/GitHub/Pete Moore - Data Scientist - CV/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13D08EC6-DB29-2B40-BAD5-AE501FB384DA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21825868-E10D-3849-A5B7-E7046B3F4A91}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13540" xr2:uid="{F4DDD439-41B3-D540-B38C-F7A1457D80E2}"/>
   </bookViews>
@@ -228,12 +228,6 @@
     <t>Skills used: SQL Server</t>
   </si>
   <si>
-    <t>Inter•Act leveraged EPOS data to provide B2C offers through kiosk technology.</t>
-  </si>
-  <si>
-    <t>Pete joined my data development team at Inter•Act as the company transitioned from an Excel-based analytics model to a Business Objects one…</t>
-  </si>
-  <si>
     <t>Dan Jankowski, Senior Oracle Developer, Société Générale (Pete’s boss)</t>
   </si>
   <si>
@@ -270,15 +264,9 @@
     <t>In addition to speaking at numerous events to promote the virtues of using data correctly, I have volunteered for the following organisations:</t>
   </si>
   <si>
-    <t>Co-leader</t>
-  </si>
-  <si>
     <t>Co-organiser</t>
   </si>
   <si>
-    <t>Co-owner</t>
-  </si>
-  <si>
     <t>I need to work, and this has always been true. I include my late-nineties Summer works because they taught me so much. (If you want to know just how much then click the links)</t>
   </si>
   <si>
@@ -357,9 +345,6 @@
     <t xml:space="preserve">LBM </t>
   </si>
   <si>
-    <t xml:space="preserve">Inter•Act Systems </t>
-  </si>
-  <si>
     <t xml:space="preserve">Santa Cruz Beach Boardwalk </t>
   </si>
   <si>
@@ -474,18 +459,9 @@
     <t>IT Director, Evolution Recruitment Solutions – Jan 2012 - Dec 2016</t>
   </si>
   <si>
-    <t>Data Analyst, Inter•Act Systems – Aug 1999 - Apr 2000</t>
-  </si>
-  <si>
     <t>Senior Data Manager, LBM – Aug 2002 - Oct 2003</t>
   </si>
   <si>
-    <t>Business Applications Specialist, Inter•Act Systems – Apr 2001 - Apr2002</t>
-  </si>
-  <si>
-    <t>Data Specialist, Inter•Act Systems – Aug 1999 - Apr 2002</t>
-  </si>
-  <si>
     <t>Rides Assistant, Santa Cruz Beach Boardwalk – Jun 1998 - Sep 1998</t>
   </si>
   <si>
@@ -927,9 +903,6 @@
     <t>Data warehousing: SSRS, SSAS, SSIS, DTS (all versions)</t>
   </si>
   <si>
-    <t>I have more than two decades’ experience in the data industry, and I love helping organisations get the most from their data. I advise on data strategy. I code at expert level in R, Python and SQL.  I have hands-on experience with the following machine learning and deep learning algorithms and methodologies: collaborative filtering, association rules, k-means, restricted Boltzmann machines, convolutional neural networks. I have composed code using the following deep learning platforms: Tensorflow, Keras, DL4J.  This list however is not exhaustive because I *strongly* believe that the problem picks the platform and I am always willing to enhance my skill set accordingly.  I’m constantly learning and refining my skills and am currently studying for an MSc Data Science at the University of Dundee (expected: Distinction). My ethos is that it always starts with the data.</t>
-  </si>
-  <si>
     <t>Machine learning algorithms: collaborative filtering, association rules, k-means, restricted Boltzmann machines, convolutional neural networks</t>
   </si>
   <si>
@@ -958,12 +931,6 @@
   </si>
   <si>
     <t>Owner, FC United – May 2005 - Dec 2021</t>
-  </si>
-  <si>
-    <t>Organiser, ManchesterSQL – Jan 2017 - Dec 2017</t>
-  </si>
-  <si>
-    <t>Leader, Microsoft (PASS Chapter) – Jan 2017 - Dec 2017</t>
   </si>
   <si>
     <t xml:space="preserve">ManchesterSQL </t>
@@ -992,6 +959,39 @@
   <si>
     <t xml:space="preserve">I was responsible for the data and IT at Evolution, a global recruitment company. 
 As IT Director I was responsible for: search algorithms across a corpus of over five million CV's; natural language processing (NLP), for example, to parse job descriptions from CVs; BI provision from consultant to board meeting; strategic IT direction of the company from infrastructure virtualisation to architecture of data estate. Responsible for internationalisation of sales practices and localisation of database. The voice of IT on the board. Often a counterpoint to sales wisdom. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have more than two decades’ experience in the data industry, and I love helping organisations get the most from their data. I advise on data strategy. I code at expert level in R, Python and SQL.  I have hands-on experience with the following machine learning and deep learning algorithms and methodologies: collaborative filtering, association rules, k-means, restricted Boltzmann machines, convolutional neural networks. I have composed code using the following deep learning platforms: Tensorflow, Keras, DL4J.  This list however is not exhaustive because I *strongly* believe that the problem picks the platform and I am always willing to enhance my skill set accordingly.  I’m constantly learning and refining my skills and am currently studying for an MSc Data Science at the University of Dundee (expected: Distinction). </t>
+  </si>
+  <si>
+    <t>Business Applications Specialist, InterAct Systems – Apr 2001 - Apr 2002</t>
+  </si>
+  <si>
+    <t>Data Analyst, InterAct Systems – Aug 1999 - Apr 2000</t>
+  </si>
+  <si>
+    <t>InterAct leveraged EPOS data to provide B2C offers through kiosk technology.</t>
+  </si>
+  <si>
+    <t>Business Objects Developer, InterAct Systems – Aug 1999 - Apr 2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">InterAct Systems </t>
+  </si>
+  <si>
+    <t>Pete joined my data development team at InterAct as the company transitioned from an Excel-based analytics model to a Business Objects one…</t>
+  </si>
+  <si>
+    <t>Co-Organiser, Microsoft (PASS Chapter) – Jan 2017 - Dec 2017</t>
+  </si>
+  <si>
+    <t>Non-Executive Director, ManchesterSQL – Jan 2017 - Dec 2017</t>
+  </si>
+  <si>
+    <t>Non-Executive Director</t>
+  </si>
+  <si>
+    <t>Owner</t>
   </si>
 </sst>
 </file>
@@ -1509,9 +1509,9 @@
   <dimension ref="A1:X177"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="G164" sqref="G164"/>
+      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="40" customHeight="1"/>
@@ -1529,34 +1529,34 @@
   <sheetData>
     <row r="1" spans="1:24" ht="40" customHeight="1">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="H1" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="I1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="J1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="K1" t="s">
         <v>0</v>
@@ -1565,40 +1565,40 @@
         <v>1</v>
       </c>
       <c r="M1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="N1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="O1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="P1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="Q1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="S1" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="T1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="V1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="W1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:24" ht="40" customHeight="1">
@@ -1630,7 +1630,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K2" t="s">
         <v>2</v>
@@ -1718,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K3" t="s">
         <v>2</v>
@@ -1781,7 +1781,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K4" t="s">
         <v>2</v>
@@ -1869,7 +1869,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K5" t="s">
         <v>2</v>
@@ -1982,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K6" t="s">
         <v>4</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K7" t="s">
         <v>6</v>
@@ -2133,7 +2133,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -2158,7 +2158,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K8" t="s">
         <v>6</v>
@@ -2221,7 +2221,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C9">
         <v>5</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K9" t="s">
         <v>6</v>
@@ -2309,7 +2309,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="K10" t="s">
         <v>6</v>
@@ -2397,7 +2397,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C11">
         <v>5</v>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K11" t="s">
         <v>6</v>
@@ -2485,7 +2485,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K12" t="s">
         <v>6</v>
@@ -2573,7 +2573,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C13">
         <v>5</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="K13" t="s">
         <v>6</v>
@@ -2655,13 +2655,13 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="14" spans="1:24" ht="128">
+    <row r="14" spans="1:24" ht="112">
       <c r="A14">
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="C14">
         <v>6</v>
@@ -2677,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K14" t="s">
         <v>7</v>
@@ -2749,7 +2749,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C15">
         <v>6</v>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -2774,7 +2774,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K15" t="s">
         <v>7</v>
@@ -2831,13 +2831,13 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="16" spans="1:24" ht="117.75">
+    <row r="16" spans="1:24" ht="128">
       <c r="A16">
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C16">
         <v>6</v>
@@ -2862,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K16" t="s">
         <v>7</v>
@@ -2919,13 +2919,13 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="17" spans="1:24" ht="15.75">
+    <row r="17" spans="1:24" ht="16">
       <c r="A17">
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C17">
         <v>7</v>
@@ -2949,13 +2949,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K17" t="s">
         <v>11</v>
       </c>
       <c r="L17" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="0"/>
@@ -3006,13 +3006,13 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="18" spans="1:24" ht="15.75">
+    <row r="18" spans="1:24" ht="16">
       <c r="A18">
         <f t="shared" si="13"/>
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -3036,13 +3036,13 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K18" t="s">
         <v>11</v>
       </c>
       <c r="L18" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="0"/>
@@ -3093,13 +3093,13 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="19" spans="1:24" ht="15.75">
+    <row r="19" spans="1:24" ht="16">
       <c r="A19">
         <f t="shared" si="13"/>
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s">
         <v>11</v>
       </c>
       <c r="L19" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="0"/>
@@ -3180,13 +3180,13 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="20" spans="1:24" ht="15.75">
+    <row r="20" spans="1:24" ht="16">
       <c r="A20">
         <f t="shared" si="13"/>
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -3210,13 +3210,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K20" t="s">
         <v>11</v>
       </c>
       <c r="L20" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="0"/>
@@ -3273,7 +3273,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="C21">
         <v>8</v>
@@ -3297,13 +3297,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K21" t="s">
         <v>11</v>
       </c>
       <c r="L21" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="0"/>
@@ -3360,7 +3360,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="C22">
         <v>8</v>
@@ -3384,13 +3384,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K22" t="s">
         <v>11</v>
       </c>
       <c r="L22" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="0"/>
@@ -3441,13 +3441,13 @@
         <v>43465</v>
       </c>
     </row>
-    <row r="23" spans="1:24" ht="15.75">
+    <row r="23" spans="1:24" ht="16">
       <c r="A23">
         <f t="shared" si="13"/>
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K23" t="s">
         <v>11</v>
       </c>
       <c r="L23" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="0"/>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K24" t="s">
         <v>4</v>
@@ -3622,7 +3622,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C25">
         <v>10</v>
@@ -3647,7 +3647,7 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s">
         <v>9</v>
@@ -3735,7 +3735,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K26" t="s">
         <v>7</v>
@@ -3823,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K27" t="s">
         <v>10</v>
@@ -3911,7 +3911,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K28" t="s">
         <v>7</v>
@@ -3999,7 +3999,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K29" t="s">
         <v>12</v>
@@ -4087,7 +4087,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K30" t="s">
         <v>12</v>
@@ -4175,7 +4175,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K31" t="s">
         <v>11</v>
@@ -4238,7 +4238,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C32">
         <v>17</v>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K32" t="s">
         <v>11</v>
@@ -4326,7 +4326,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C33">
         <v>18</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K33" t="s">
         <v>11</v>
@@ -4439,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K34" t="s">
         <v>7</v>
@@ -4527,7 +4527,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K35" t="s">
         <v>12</v>
@@ -4615,7 +4615,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K36" t="s">
         <v>12</v>
@@ -4703,7 +4703,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K37" t="s">
         <v>12</v>
@@ -4791,7 +4791,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K38" t="s">
         <v>7</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K39" t="s">
         <v>10</v>
@@ -4942,7 +4942,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C40">
         <v>25</v>
@@ -4967,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="J40" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K40" t="s">
         <v>7</v>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K41" t="s">
         <v>7</v>
@@ -5143,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K42" t="s">
         <v>12</v>
@@ -5231,7 +5231,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K43" t="s">
         <v>12</v>
@@ -5319,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K44" t="s">
         <v>13</v>
@@ -5382,7 +5382,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C45">
         <v>29</v>
@@ -5407,10 +5407,10 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K45" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L45" t="s">
         <v>8</v>
@@ -5470,7 +5470,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C46">
         <v>30</v>
@@ -5495,7 +5495,7 @@
         <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K46" t="s">
         <v>9</v>
@@ -5583,7 +5583,7 @@
         <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K47" t="s">
         <v>7</v>
@@ -5646,7 +5646,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C48">
         <v>32</v>
@@ -5671,7 +5671,7 @@
         <v>1</v>
       </c>
       <c r="J48" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K48" t="s">
         <v>9</v>
@@ -5734,7 +5734,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="C49">
         <v>33</v>
@@ -5759,7 +5759,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K49" t="s">
         <v>7</v>
@@ -5847,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K50" t="s">
         <v>12</v>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K51" t="s">
         <v>12</v>
@@ -6023,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K52" t="s">
         <v>12</v>
@@ -6086,7 +6086,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C53">
         <v>37</v>
@@ -6111,7 +6111,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K53" t="s">
         <v>12</v>
@@ -6174,7 +6174,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C54">
         <v>38</v>
@@ -6199,7 +6199,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K54" t="s">
         <v>12</v>
@@ -6262,7 +6262,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C55">
         <v>39</v>
@@ -6287,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K55" t="s">
         <v>12</v>
@@ -6350,7 +6350,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C56">
         <v>40</v>
@@ -6375,7 +6375,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K56" t="s">
         <v>12</v>
@@ -6438,7 +6438,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C57">
         <v>41</v>
@@ -6463,7 +6463,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K57" t="s">
         <v>12</v>
@@ -6526,7 +6526,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C58">
         <v>42</v>
@@ -6551,7 +6551,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K58" t="s">
         <v>12</v>
@@ -6614,7 +6614,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C59">
         <v>43</v>
@@ -6639,7 +6639,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K59" t="s">
         <v>12</v>
@@ -6702,7 +6702,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C60">
         <v>44</v>
@@ -6727,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K60" t="s">
         <v>12</v>
@@ -6815,7 +6815,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K61" t="s">
         <v>12</v>
@@ -6903,7 +6903,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K62" t="s">
         <v>12</v>
@@ -6966,7 +6966,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C63">
         <v>47</v>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K63" t="s">
         <v>7</v>
@@ -7054,7 +7054,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C64">
         <v>48</v>
@@ -7079,7 +7079,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K64" t="s">
         <v>10</v>
@@ -7167,7 +7167,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K65" t="s">
         <v>7</v>
@@ -7255,7 +7255,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K66" t="s">
         <v>12</v>
@@ -7343,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K67" t="s">
         <v>12</v>
@@ -7406,7 +7406,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C68">
         <v>52</v>
@@ -7431,7 +7431,7 @@
         <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K68" t="s">
         <v>7</v>
@@ -7519,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K69" t="s">
         <v>11</v>
@@ -7582,7 +7582,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C70">
         <v>54</v>
@@ -7607,7 +7607,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K70" t="s">
         <v>11</v>
@@ -7670,7 +7670,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="C71">
         <v>55</v>
@@ -7695,7 +7695,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K71" t="s">
         <v>11</v>
@@ -7758,7 +7758,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C72">
         <v>55</v>
@@ -7783,7 +7783,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K72" t="s">
         <v>11</v>
@@ -7846,7 +7846,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="C73">
         <v>56</v>
@@ -7871,7 +7871,7 @@
         <v>5</v>
       </c>
       <c r="J73" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K73" t="s">
         <v>11</v>
@@ -7934,7 +7934,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="C74">
         <v>57</v>
@@ -7959,7 +7959,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K74" t="s">
         <v>11</v>
@@ -8022,7 +8022,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C75">
         <v>58</v>
@@ -8047,7 +8047,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K75" t="s">
         <v>11</v>
@@ -8110,7 +8110,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C76">
         <v>59</v>
@@ -8135,7 +8135,7 @@
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K76" t="s">
         <v>11</v>
@@ -8223,7 +8223,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K77" t="s">
         <v>13</v>
@@ -8286,7 +8286,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C78">
         <v>61</v>
@@ -8311,10 +8311,10 @@
         <v>1</v>
       </c>
       <c r="J78" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K78" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L78" t="s">
         <v>8</v>
@@ -8374,7 +8374,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C79">
         <v>62</v>
@@ -8399,7 +8399,7 @@
         <v>1</v>
       </c>
       <c r="J79" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K79" t="s">
         <v>10</v>
@@ -8487,7 +8487,7 @@
         <v>1</v>
       </c>
       <c r="J80" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K80" t="s">
         <v>7</v>
@@ -8575,7 +8575,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K81" t="s">
         <v>12</v>
@@ -8663,7 +8663,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K82" t="s">
         <v>12</v>
@@ -8726,7 +8726,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C83">
         <v>66</v>
@@ -8751,7 +8751,7 @@
         <v>1</v>
       </c>
       <c r="J83" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K83" t="s">
         <v>7</v>
@@ -8839,7 +8839,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K84" t="s">
         <v>11</v>
@@ -8902,7 +8902,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C85">
         <v>68</v>
@@ -8927,7 +8927,7 @@
         <v>4</v>
       </c>
       <c r="J85" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K85" t="s">
         <v>11</v>
@@ -8990,7 +8990,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C86">
         <v>69</v>
@@ -9015,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K86" t="s">
         <v>11</v>
@@ -9078,7 +9078,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C87">
         <v>70</v>
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K87" t="s">
         <v>11</v>
@@ -9166,7 +9166,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C88">
         <v>71</v>
@@ -9191,7 +9191,7 @@
         <v>3</v>
       </c>
       <c r="J88" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K88" t="s">
         <v>11</v>
@@ -9254,7 +9254,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C89">
         <v>72</v>
@@ -9279,7 +9279,7 @@
         <v>2</v>
       </c>
       <c r="J89" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K89" t="s">
         <v>11</v>
@@ -9342,7 +9342,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C90">
         <v>73</v>
@@ -9367,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K90" t="s">
         <v>11</v>
@@ -9455,7 +9455,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K91" t="s">
         <v>13</v>
@@ -9518,7 +9518,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C92">
         <v>76</v>
@@ -9543,10 +9543,10 @@
         <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K92" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L92" t="s">
         <v>8</v>
@@ -9606,7 +9606,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C93">
         <v>77</v>
@@ -9631,7 +9631,7 @@
         <v>1</v>
       </c>
       <c r="J93" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K93" t="s">
         <v>10</v>
@@ -9719,7 +9719,7 @@
         <v>1</v>
       </c>
       <c r="J94" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K94" t="s">
         <v>7</v>
@@ -9782,7 +9782,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C95">
         <v>79</v>
@@ -9807,7 +9807,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K95" t="s">
         <v>11</v>
@@ -9870,7 +9870,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C96">
         <v>80</v>
@@ -9895,7 +9895,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K96" t="s">
         <v>11</v>
@@ -9958,7 +9958,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C97">
         <v>81</v>
@@ -9983,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K97" t="s">
         <v>11</v>
@@ -10046,7 +10046,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C98">
         <v>82</v>
@@ -10071,7 +10071,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K98" t="s">
         <v>11</v>
@@ -10134,7 +10134,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C99">
         <v>83</v>
@@ -10159,7 +10159,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K99" t="s">
         <v>11</v>
@@ -10247,7 +10247,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K100" t="s">
         <v>13</v>
@@ -10310,7 +10310,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C101">
         <v>85</v>
@@ -10335,10 +10335,10 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K101" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L101" t="s">
         <v>8</v>
@@ -10398,7 +10398,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C102">
         <v>86</v>
@@ -10423,7 +10423,7 @@
         <v>1</v>
       </c>
       <c r="J102" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K102" t="s">
         <v>9</v>
@@ -10511,7 +10511,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K103" t="s">
         <v>7</v>
@@ -10599,7 +10599,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K104" t="s">
         <v>12</v>
@@ -10687,7 +10687,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K105" t="s">
         <v>12</v>
@@ -10750,7 +10750,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="C106">
         <v>90</v>
@@ -10775,7 +10775,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K106" t="s">
         <v>10</v>
@@ -10863,7 +10863,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K107" t="s">
         <v>7</v>
@@ -10951,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K108" t="s">
         <v>13</v>
@@ -11014,7 +11014,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C109">
         <v>93</v>
@@ -11039,10 +11039,10 @@
         <v>1</v>
       </c>
       <c r="J109" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K109" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L109" t="s">
         <v>8</v>
@@ -11102,7 +11102,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="C110">
         <v>94</v>
@@ -11127,7 +11127,7 @@
         <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K110" t="s">
         <v>9</v>
@@ -11137,15 +11137,15 @@
       </c>
       <c r="M110" t="str">
         <f t="shared" si="38"/>
-        <v>Data Specialist, Inter•Act Systems – Aug 1999 - Apr 2002</v>
+        <v>Business Objects Developer, InterAct Systems – Aug 1999 - Apr 2002</v>
       </c>
       <c r="N110" t="str">
         <f t="shared" si="45"/>
-        <v>Data Specialist</v>
+        <v>Business Objects Developer</v>
       </c>
       <c r="O110" t="str">
         <f t="shared" si="46"/>
-        <v xml:space="preserve">Inter•Act Systems </v>
+        <v xml:space="preserve">InterAct Systems </v>
       </c>
       <c r="P110" t="str">
         <f t="shared" si="55"/>
@@ -11190,7 +11190,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>63</v>
+        <v>310</v>
       </c>
       <c r="C111">
         <v>95</v>
@@ -11215,7 +11215,7 @@
         <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K111" t="s">
         <v>7</v>
@@ -11225,15 +11225,15 @@
       </c>
       <c r="M111" t="str">
         <f t="shared" si="38"/>
-        <v>Data Specialist, Inter•Act Systems – Aug 1999 - Apr 2002</v>
+        <v>Business Objects Developer, InterAct Systems – Aug 1999 - Apr 2002</v>
       </c>
       <c r="N111" t="str">
         <f t="shared" si="45"/>
-        <v>Data Specialist</v>
+        <v>Business Objects Developer</v>
       </c>
       <c r="O111" t="str">
         <f t="shared" si="46"/>
-        <v xml:space="preserve">Inter•Act Systems </v>
+        <v xml:space="preserve">InterAct Systems </v>
       </c>
       <c r="P111" t="str">
         <f t="shared" si="55"/>
@@ -11278,7 +11278,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>64</v>
+        <v>313</v>
       </c>
       <c r="C112">
         <v>96</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K112" t="s">
         <v>12</v>
@@ -11313,15 +11313,15 @@
       </c>
       <c r="M112" t="str">
         <f t="shared" si="38"/>
-        <v>Data Specialist, Inter•Act Systems – Aug 1999 - Apr 2002</v>
+        <v>Business Objects Developer, InterAct Systems – Aug 1999 - Apr 2002</v>
       </c>
       <c r="N112" t="str">
         <f t="shared" si="45"/>
-        <v>Data Specialist</v>
+        <v>Business Objects Developer</v>
       </c>
       <c r="O112" t="str">
         <f t="shared" si="46"/>
-        <v xml:space="preserve">Inter•Act Systems </v>
+        <v xml:space="preserve">InterAct Systems </v>
       </c>
       <c r="P112" t="str">
         <f t="shared" si="55"/>
@@ -11366,7 +11366,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C113">
         <v>97</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K113" t="s">
         <v>12</v>
@@ -11401,15 +11401,15 @@
       </c>
       <c r="M113" t="str">
         <f t="shared" si="38"/>
-        <v>Data Specialist, Inter•Act Systems – Aug 1999 - Apr 2002</v>
+        <v>Business Objects Developer, InterAct Systems – Aug 1999 - Apr 2002</v>
       </c>
       <c r="N113" t="str">
         <f t="shared" si="45"/>
-        <v>Data Specialist</v>
+        <v>Business Objects Developer</v>
       </c>
       <c r="O113" t="str">
         <f t="shared" si="46"/>
-        <v xml:space="preserve">Inter•Act Systems </v>
+        <v xml:space="preserve">InterAct Systems </v>
       </c>
       <c r="P113" t="str">
         <f t="shared" si="55"/>
@@ -11454,7 +11454,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>147</v>
+        <v>308</v>
       </c>
       <c r="C114">
         <v>98</v>
@@ -11479,7 +11479,7 @@
         <v>1</v>
       </c>
       <c r="J114" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K114" t="s">
         <v>10</v>
@@ -11489,15 +11489,15 @@
       </c>
       <c r="M114" t="str">
         <f t="shared" si="38"/>
-        <v>Data Specialist, Inter•Act Systems – Aug 1999 - Apr 2002</v>
+        <v>Business Objects Developer, InterAct Systems – Aug 1999 - Apr 2002</v>
       </c>
       <c r="N114" t="str">
         <f t="shared" ref="N114:N144" si="56">IF($M114="","",LEFT($M114,FIND(",",$M114)-1))</f>
-        <v>Data Specialist</v>
+        <v>Business Objects Developer</v>
       </c>
       <c r="O114" t="str">
         <f t="shared" ref="O114:O144" si="57">IF($M114="","",SUBSTITUTE(LEFT($M114,FIND("–",$M114)-1),N114&amp;", ",""))</f>
-        <v xml:space="preserve">Inter•Act Systems </v>
+        <v xml:space="preserve">InterAct Systems </v>
       </c>
       <c r="P114" t="str">
         <f t="shared" si="55"/>
@@ -11542,7 +11542,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C115">
         <v>99</v>
@@ -11567,7 +11567,7 @@
         <v>1</v>
       </c>
       <c r="J115" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K115" t="s">
         <v>7</v>
@@ -11577,15 +11577,15 @@
       </c>
       <c r="M115" t="str">
         <f t="shared" si="38"/>
-        <v>Data Specialist, Inter•Act Systems – Aug 1999 - Apr 2002</v>
+        <v>Business Objects Developer, InterAct Systems – Aug 1999 - Apr 2002</v>
       </c>
       <c r="N115" t="str">
         <f t="shared" si="56"/>
-        <v>Data Specialist</v>
+        <v>Business Objects Developer</v>
       </c>
       <c r="O115" t="str">
         <f t="shared" si="57"/>
-        <v xml:space="preserve">Inter•Act Systems </v>
+        <v xml:space="preserve">InterAct Systems </v>
       </c>
       <c r="P115" t="str">
         <f t="shared" si="55"/>
@@ -11630,7 +11630,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>145</v>
+        <v>309</v>
       </c>
       <c r="C116">
         <v>100</v>
@@ -11655,7 +11655,7 @@
         <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K116" t="s">
         <v>10</v>
@@ -11665,15 +11665,15 @@
       </c>
       <c r="M116" t="str">
         <f t="shared" si="38"/>
-        <v>Data Specialist, Inter•Act Systems – Aug 1999 - Apr 2002</v>
+        <v>Business Objects Developer, InterAct Systems – Aug 1999 - Apr 2002</v>
       </c>
       <c r="N116" t="str">
         <f t="shared" si="56"/>
-        <v>Data Specialist</v>
+        <v>Business Objects Developer</v>
       </c>
       <c r="O116" t="str">
         <f t="shared" si="57"/>
-        <v xml:space="preserve">Inter•Act Systems </v>
+        <v xml:space="preserve">InterAct Systems </v>
       </c>
       <c r="P116" t="str">
         <f t="shared" si="55"/>
@@ -11718,7 +11718,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C117">
         <v>101</v>
@@ -11743,7 +11743,7 @@
         <v>1</v>
       </c>
       <c r="J117" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K117" t="s">
         <v>7</v>
@@ -11753,15 +11753,15 @@
       </c>
       <c r="M117" t="str">
         <f t="shared" si="38"/>
-        <v>Data Specialist, Inter•Act Systems – Aug 1999 - Apr 2002</v>
+        <v>Business Objects Developer, InterAct Systems – Aug 1999 - Apr 2002</v>
       </c>
       <c r="N117" t="str">
         <f t="shared" si="56"/>
-        <v>Data Specialist</v>
+        <v>Business Objects Developer</v>
       </c>
       <c r="O117" t="str">
         <f t="shared" si="57"/>
-        <v xml:space="preserve">Inter•Act Systems </v>
+        <v xml:space="preserve">InterAct Systems </v>
       </c>
       <c r="P117" t="str">
         <f t="shared" si="55"/>
@@ -11806,7 +11806,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C118">
         <v>102</v>
@@ -11831,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K118" t="s">
         <v>13</v>
@@ -11841,15 +11841,15 @@
       </c>
       <c r="M118" t="str">
         <f t="shared" si="38"/>
-        <v>Data Specialist, Inter•Act Systems – Aug 1999 - Apr 2002</v>
+        <v>Business Objects Developer, InterAct Systems – Aug 1999 - Apr 2002</v>
       </c>
       <c r="N118" t="str">
         <f t="shared" si="56"/>
-        <v>Data Specialist</v>
+        <v>Business Objects Developer</v>
       </c>
       <c r="O118" t="str">
         <f t="shared" si="57"/>
-        <v xml:space="preserve">Inter•Act Systems </v>
+        <v xml:space="preserve">InterAct Systems </v>
       </c>
       <c r="P118" t="str">
         <f t="shared" si="55"/>
@@ -11894,7 +11894,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C119">
         <v>103</v>
@@ -11919,25 +11919,25 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K119" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L119" t="s">
         <v>8</v>
       </c>
       <c r="M119" t="str">
         <f t="shared" si="38"/>
-        <v>Data Specialist, Inter•Act Systems – Aug 1999 - Apr 2002</v>
+        <v>Business Objects Developer, InterAct Systems – Aug 1999 - Apr 2002</v>
       </c>
       <c r="N119" t="str">
         <f t="shared" si="56"/>
-        <v>Data Specialist</v>
+        <v>Business Objects Developer</v>
       </c>
       <c r="O119" t="str">
         <f t="shared" si="57"/>
-        <v xml:space="preserve">Inter•Act Systems </v>
+        <v xml:space="preserve">InterAct Systems </v>
       </c>
       <c r="P119" t="str">
         <f t="shared" si="55"/>
@@ -12007,7 +12007,7 @@
         <v>1</v>
       </c>
       <c r="J120" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K120" t="s">
         <v>4</v>
@@ -12070,7 +12070,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C121">
         <v>105</v>
@@ -12095,7 +12095,7 @@
         <v>1</v>
       </c>
       <c r="J121" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K121" t="s">
         <v>7</v>
@@ -12158,7 +12158,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C122">
         <v>106</v>
@@ -12183,7 +12183,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K122" t="s">
         <v>7</v>
@@ -12246,7 +12246,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C123">
         <v>107</v>
@@ -12271,7 +12271,7 @@
         <v>1</v>
       </c>
       <c r="J123" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K123" t="s">
         <v>7</v>
@@ -12359,7 +12359,7 @@
         <v>1</v>
       </c>
       <c r="J124" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K124" t="s">
         <v>4</v>
@@ -12422,7 +12422,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C125">
         <v>109</v>
@@ -12447,7 +12447,7 @@
         <v>1</v>
       </c>
       <c r="J125" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K125" t="s">
         <v>7</v>
@@ -12510,7 +12510,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C126">
         <v>110</v>
@@ -12535,7 +12535,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K126" t="s">
         <v>12</v>
@@ -12598,7 +12598,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C127">
         <v>111</v>
@@ -12623,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K127" t="s">
         <v>12</v>
@@ -12686,7 +12686,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C128">
         <v>112</v>
@@ -12711,7 +12711,7 @@
         <v>1</v>
       </c>
       <c r="J128" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K128" t="s">
         <v>7</v>
@@ -12774,7 +12774,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C129">
         <v>113</v>
@@ -12799,7 +12799,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K129" t="s">
         <v>7</v>
@@ -12887,7 +12887,7 @@
         <v>1</v>
       </c>
       <c r="J130" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K130" t="s">
         <v>4</v>
@@ -12950,7 +12950,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C131">
         <v>115</v>
@@ -12975,7 +12975,7 @@
         <v>1</v>
       </c>
       <c r="J131" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K131" t="s">
         <v>7</v>
@@ -13038,7 +13038,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C132">
         <v>116</v>
@@ -13063,7 +13063,7 @@
         <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K132" t="s">
         <v>9</v>
@@ -13073,11 +13073,11 @@
       </c>
       <c r="M132" t="str">
         <f t="shared" si="65"/>
-        <v>Leader, Microsoft (PASS Chapter) – Jan 2017 - Dec 2017</v>
+        <v>Co-Organiser, Microsoft (PASS Chapter) – Jan 2017 - Dec 2017</v>
       </c>
       <c r="N132" t="str">
         <f t="shared" si="56"/>
-        <v>Leader</v>
+        <v>Co-Organiser</v>
       </c>
       <c r="O132" t="str">
         <f>IF($M132="","",SUBSTITUTE(LEFT($M132,FIND("–",$M132)-1),N132&amp;", ",""))</f>
@@ -13126,7 +13126,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C133">
         <v>117</v>
@@ -13151,7 +13151,7 @@
         <v>1</v>
       </c>
       <c r="J133" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K133" t="s">
         <v>10</v>
@@ -13161,11 +13161,11 @@
       </c>
       <c r="M133" t="str">
         <f t="shared" si="65"/>
-        <v>Leader, Microsoft (PASS Chapter) – Jan 2017 - Dec 2017</v>
+        <v>Co-Organiser, Microsoft (PASS Chapter) – Jan 2017 - Dec 2017</v>
       </c>
       <c r="N133" t="str">
         <f t="shared" si="56"/>
-        <v>Leader</v>
+        <v>Co-Organiser</v>
       </c>
       <c r="O133" t="str">
         <f t="shared" si="57"/>
@@ -13214,7 +13214,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C134">
         <v>118</v>
@@ -13239,7 +13239,7 @@
         <v>1</v>
       </c>
       <c r="J134" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K134" t="s">
         <v>7</v>
@@ -13249,11 +13249,11 @@
       </c>
       <c r="M134" t="str">
         <f>IF(OR(AND(L134&lt;&gt;$L$25,L134&lt;&gt;$L$154,L134&lt;&gt;$L$155,L134&lt;&gt;$L$134),K134=$K$155),"Person, Planet Earth – Apr 1977 - Dec 2018",IF(K134=$K$25,B134,M133))</f>
-        <v>Leader, Microsoft (PASS Chapter) – Jan 2017 - Dec 2017</v>
+        <v>Co-Organiser, Microsoft (PASS Chapter) – Jan 2017 - Dec 2017</v>
       </c>
       <c r="N134" t="str">
         <f t="shared" si="56"/>
-        <v>Leader</v>
+        <v>Co-Organiser</v>
       </c>
       <c r="O134" t="str">
         <f t="shared" si="57"/>
@@ -13302,7 +13302,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="C135">
         <v>119</v>
@@ -13327,7 +13327,7 @@
         <v>1</v>
       </c>
       <c r="J135" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K135" t="s">
         <v>9</v>
@@ -13337,11 +13337,11 @@
       </c>
       <c r="M135" t="str">
         <f t="shared" ref="M135:M177" si="67">IF(OR(AND(L135&lt;&gt;$L$25,L135&lt;&gt;$L$154,L135&lt;&gt;$L$155,L135&lt;&gt;$L$134),K135=$K$155),"Person, Planet Earth – Apr 1977 - Dec 2018",IF(K135=$K$25,B135,M134))</f>
-        <v>Organiser, ManchesterSQL – Jan 2017 - Dec 2017</v>
+        <v>Non-Executive Director, ManchesterSQL – Jan 2017 - Dec 2017</v>
       </c>
       <c r="N135" t="str">
         <f t="shared" si="56"/>
-        <v>Organiser</v>
+        <v>Non-Executive Director</v>
       </c>
       <c r="O135" t="str">
         <f t="shared" si="57"/>
@@ -13390,7 +13390,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="7" t="s">
-        <v>78</v>
+        <v>316</v>
       </c>
       <c r="C136">
         <v>120</v>
@@ -13415,7 +13415,7 @@
         <v>1</v>
       </c>
       <c r="J136" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K136" t="s">
         <v>10</v>
@@ -13425,11 +13425,11 @@
       </c>
       <c r="M136" t="str">
         <f t="shared" si="67"/>
-        <v>Organiser, ManchesterSQL – Jan 2017 - Dec 2017</v>
+        <v>Non-Executive Director, ManchesterSQL – Jan 2017 - Dec 2017</v>
       </c>
       <c r="N136" t="str">
         <f t="shared" si="56"/>
-        <v>Organiser</v>
+        <v>Non-Executive Director</v>
       </c>
       <c r="O136" t="str">
         <f t="shared" si="57"/>
@@ -13478,7 +13478,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C137">
         <v>121</v>
@@ -13503,7 +13503,7 @@
         <v>1</v>
       </c>
       <c r="J137" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K137" t="s">
         <v>7</v>
@@ -13513,11 +13513,11 @@
       </c>
       <c r="M137" t="str">
         <f t="shared" si="67"/>
-        <v>Organiser, ManchesterSQL – Jan 2017 - Dec 2017</v>
+        <v>Non-Executive Director, ManchesterSQL – Jan 2017 - Dec 2017</v>
       </c>
       <c r="N137" t="str">
         <f t="shared" si="56"/>
-        <v>Organiser</v>
+        <v>Non-Executive Director</v>
       </c>
       <c r="O137" t="str">
         <f t="shared" si="57"/>
@@ -13566,7 +13566,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C138">
         <v>122</v>
@@ -13591,7 +13591,7 @@
         <v>1</v>
       </c>
       <c r="J138" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K138" t="s">
         <v>9</v>
@@ -13654,7 +13654,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="C139">
         <v>123</v>
@@ -13679,7 +13679,7 @@
         <v>1</v>
       </c>
       <c r="J139" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K139" t="s">
         <v>10</v>
@@ -13742,7 +13742,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C140">
         <v>124</v>
@@ -13767,7 +13767,7 @@
         <v>1</v>
       </c>
       <c r="J140" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K140" t="s">
         <v>7</v>
@@ -13855,7 +13855,7 @@
         <v>1</v>
       </c>
       <c r="J141" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K141" t="s">
         <v>4</v>
@@ -13918,7 +13918,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C142">
         <v>126</v>
@@ -13943,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K142" t="s">
         <v>7</v>
@@ -14006,7 +14006,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C143">
         <v>127</v>
@@ -14031,7 +14031,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K143" t="s">
         <v>9</v>
@@ -14094,7 +14094,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C144">
         <v>128</v>
@@ -14119,7 +14119,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K144" t="s">
         <v>10</v>
@@ -14182,7 +14182,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C145">
         <v>129</v>
@@ -14207,10 +14207,10 @@
         <v>0</v>
       </c>
       <c r="J145" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K145" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L145" t="s">
         <v>17</v>
@@ -14270,7 +14270,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C146">
         <v>130</v>
@@ -14295,7 +14295,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K146" t="s">
         <v>9</v>
@@ -14358,7 +14358,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C147">
         <v>131</v>
@@ -14383,7 +14383,7 @@
         <v>0</v>
       </c>
       <c r="J147" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K147" t="s">
         <v>10</v>
@@ -14446,7 +14446,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C148">
         <v>132</v>
@@ -14471,10 +14471,10 @@
         <v>0</v>
       </c>
       <c r="J148" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K148" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L148" t="s">
         <v>17</v>
@@ -14534,7 +14534,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C149">
         <v>133</v>
@@ -14559,7 +14559,7 @@
         <v>0</v>
       </c>
       <c r="J149" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K149" t="s">
         <v>9</v>
@@ -14622,7 +14622,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C150">
         <v>134</v>
@@ -14647,7 +14647,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K150" t="s">
         <v>10</v>
@@ -14710,7 +14710,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C151">
         <v>135</v>
@@ -14735,10 +14735,10 @@
         <v>0</v>
       </c>
       <c r="J151" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K151" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L151" t="s">
         <v>17</v>
@@ -14798,7 +14798,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C152">
         <v>136</v>
@@ -14823,7 +14823,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K152" t="s">
         <v>9</v>
@@ -14886,7 +14886,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C153">
         <v>137</v>
@@ -14911,7 +14911,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K153" t="s">
         <v>10</v>
@@ -14974,7 +14974,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C154">
         <v>138</v>
@@ -14999,10 +14999,10 @@
         <v>0</v>
       </c>
       <c r="J154" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K154" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L154" t="s">
         <v>17</v>
@@ -15087,7 +15087,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K155" t="s">
         <v>4</v>
@@ -15150,7 +15150,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C156">
         <v>140</v>
@@ -15175,7 +15175,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K156" t="s">
         <v>7</v>
@@ -15238,7 +15238,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C157">
         <v>141</v>
@@ -15263,7 +15263,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K157" t="s">
         <v>12</v>
@@ -15326,7 +15326,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C158">
         <v>142</v>
@@ -15351,7 +15351,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K158" t="s">
         <v>12</v>
@@ -15414,7 +15414,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C159">
         <v>143</v>
@@ -15439,7 +15439,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K159" t="s">
         <v>7</v>
@@ -15502,7 +15502,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C160">
         <v>144</v>
@@ -15527,7 +15527,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K160" t="s">
         <v>7</v>
@@ -15590,7 +15590,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C161">
         <v>145</v>
@@ -15615,7 +15615,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K161" t="s">
         <v>9</v>
@@ -15678,7 +15678,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C162">
         <v>146</v>
@@ -15703,7 +15703,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K162" t="s">
         <v>10</v>
@@ -15766,7 +15766,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C163">
         <v>147</v>
@@ -15791,7 +15791,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K163" t="s">
         <v>19</v>
@@ -15854,7 +15854,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C164">
         <v>148</v>
@@ -15879,7 +15879,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K164" t="s">
         <v>9</v>
@@ -15942,7 +15942,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C165">
         <v>149</v>
@@ -15967,7 +15967,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K165" t="s">
         <v>10</v>
@@ -16030,7 +16030,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C166">
         <v>150</v>
@@ -16055,7 +16055,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K166" t="s">
         <v>19</v>
@@ -16118,7 +16118,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C167">
         <v>151</v>
@@ -16143,7 +16143,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K167" t="s">
         <v>9</v>
@@ -16206,7 +16206,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="C168">
         <v>152</v>
@@ -16231,7 +16231,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K168" t="s">
         <v>10</v>
@@ -16294,7 +16294,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C169">
         <v>153</v>
@@ -16319,7 +16319,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K169" t="s">
         <v>19</v>
@@ -16382,7 +16382,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C170">
         <v>154</v>
@@ -16407,7 +16407,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K170" t="s">
         <v>10</v>
@@ -16470,7 +16470,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C171">
         <v>155</v>
@@ -16495,7 +16495,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K171" t="s">
         <v>19</v>
@@ -16558,7 +16558,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="C172">
         <v>156</v>
@@ -16583,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K172" t="s">
         <v>10</v>
@@ -16646,7 +16646,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C173">
         <v>157</v>
@@ -16671,7 +16671,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K173" t="s">
         <v>19</v>
@@ -16734,7 +16734,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C174">
         <v>158</v>
@@ -16759,7 +16759,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K174" t="s">
         <v>10</v>
@@ -16822,7 +16822,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C175">
         <v>159</v>
@@ -16847,7 +16847,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K175" t="s">
         <v>19</v>
@@ -16910,7 +16910,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C176">
         <v>160</v>
@@ -16935,7 +16935,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K176" t="s">
         <v>10</v>
@@ -16998,7 +16998,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C177">
         <v>161</v>
@@ -17023,7 +17023,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="K177" t="s">
         <v>19</v>
@@ -17081,7 +17081,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X177" xr:uid="{686BF460-D622-F54A-82EF-B4943648BBCC}"/>
+  <autoFilter ref="A1:X177" xr:uid="{98A1DA68-8711-2844-8CE9-A390CE5FB66F}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J177" xr:uid="{8524CA6A-1649-704D-B146-C2846B5752F1}">
       <formula1>tblRoleType</formula1>
@@ -17113,39 +17113,39 @@
   <sheetData>
     <row r="1" spans="1:32">
       <c r="A1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" t="s">
+        <v>213</v>
+      </c>
+      <c r="D1" t="s">
         <v>216</v>
       </c>
-      <c r="B1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C1" t="s">
-        <v>221</v>
-      </c>
-      <c r="D1" t="s">
-        <v>224</v>
-      </c>
       <c r="E1" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="F1" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G1" t="s">
+        <v>227</v>
+      </c>
+      <c r="O1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P1" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q1" t="s">
         <v>235</v>
-      </c>
-      <c r="O1" t="s">
-        <v>245</v>
-      </c>
-      <c r="P1" t="s">
-        <v>246</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="H2" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I2" t="str">
         <f>IF(H2=$H$2,B4&amp;"(Base):",IF(H1=$H$2,"__tablename__='"&amp;B3&amp;"'",IF(B2="NA","",LOWER(A2)&amp;"=")))</f>
@@ -17280,20 +17280,20 @@
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="8" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>217</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>225</v>
       </c>
       <c r="E4" s="9"/>
       <c r="G4" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I4" t="str">
         <f t="shared" si="7"/>
@@ -17362,19 +17362,19 @@
     </row>
     <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C5" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F5">
         <v>8000</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I5" t="str">
         <f t="shared" si="7"/>
@@ -17443,16 +17443,16 @@
     </row>
     <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B6" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I6" t="str">
         <f t="shared" si="7"/>
@@ -17521,16 +17521,16 @@
     </row>
     <row r="7" spans="1:32">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C7" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I7" t="str">
         <f t="shared" si="7"/>
@@ -17599,16 +17599,16 @@
     </row>
     <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I8" t="str">
         <f t="shared" si="7"/>
@@ -17677,16 +17677,16 @@
     </row>
     <row r="9" spans="1:32">
       <c r="A9" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B9" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C9" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I9" t="str">
         <f t="shared" si="7"/>
@@ -17755,16 +17755,16 @@
     </row>
     <row r="10" spans="1:32">
       <c r="A10" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C10" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I10" t="str">
         <f>IF(H10=$H$2,B16&amp;"(Base):",IF(H9=$H$2,"__tablename__='"&amp;B11&amp;"'",IF(B10="NA","",LOWER(A10)&amp;"=")))</f>
@@ -17833,16 +17833,16 @@
     </row>
     <row r="11" spans="1:32">
       <c r="A11" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C11" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I11" t="str">
         <f>IF(H11=$H$2,B17&amp;"(Base):",IF(H10=$H$2,"__tablename__='"&amp;B16&amp;"'",IF(B11="NA","",LOWER(A11)&amp;"=")))</f>
@@ -17911,19 +17911,19 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="8" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C12" t="s">
+        <v>214</v>
+      </c>
+      <c r="E12" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C12" t="s">
-        <v>222</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="G12" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I12" t="str">
         <f t="shared" ref="I12:I15" si="22">IF(H12=$H$2,B18&amp;"(Base):",IF(H11=$H$2,"__tablename__='"&amp;B17&amp;"'",IF(B12="NA","",LOWER(A12)&amp;"=")))</f>
@@ -17992,19 +17992,19 @@
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="8" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C13" t="s">
+        <v>214</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C13" t="s">
-        <v>222</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="G13" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I13" t="str">
         <f t="shared" si="22"/>
@@ -18073,19 +18073,19 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="8" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" t="s">
+        <v>214</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C14" t="s">
-        <v>222</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="G14" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I14" t="str">
         <f t="shared" si="22"/>
@@ -18154,19 +18154,19 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="8" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B15" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C15" t="s">
-        <v>222</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>225</v>
-      </c>
       <c r="G15" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I15" t="str">
         <f t="shared" si="22"/>
@@ -18236,7 +18236,7 @@
     <row r="16" spans="1:32">
       <c r="G16" s="6"/>
       <c r="H16" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I16" t="str">
         <f>IF(H16=$H$2,B18&amp;"(Base):",IF(H11=$H$2,"__tablename__='"&amp;B17&amp;"'",IF(B16="NA","",LOWER(A16)&amp;"=")))</f>
@@ -18372,20 +18372,20 @@
     </row>
     <row r="18" spans="1:32" s="8" customFormat="1">
       <c r="A18" s="8" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E18" s="9"/>
       <c r="G18" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I18" t="str">
         <f t="shared" si="7"/>
@@ -18454,19 +18454,19 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C19" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F19">
         <v>50</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="7"/>
@@ -18536,7 +18536,7 @@
     <row r="20" spans="1:32">
       <c r="G20" s="6"/>
       <c r="H20" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I20" t="str">
         <f t="shared" si="7"/>
@@ -18672,20 +18672,20 @@
     </row>
     <row r="22" spans="1:32" s="8" customFormat="1">
       <c r="A22" s="8" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E22" s="9"/>
       <c r="G22" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I22" t="str">
         <f t="shared" si="7"/>
@@ -18760,13 +18760,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F23">
         <v>50</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I23" t="str">
         <f t="shared" si="7"/>
@@ -18836,7 +18836,7 @@
     <row r="24" spans="1:32">
       <c r="G24" s="6"/>
       <c r="H24" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I24" t="str">
         <f t="shared" si="7"/>
@@ -18972,20 +18972,20 @@
     </row>
     <row r="26" spans="1:32" s="8" customFormat="1">
       <c r="A26" s="8" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E26" s="9"/>
       <c r="G26" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="7"/>
@@ -19060,13 +19060,13 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F27">
         <v>50</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I27" t="str">
         <f t="shared" si="7"/>
@@ -19136,7 +19136,7 @@
     <row r="28" spans="1:32">
       <c r="G28" s="6"/>
       <c r="H28" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="I28" t="str">
         <f t="shared" si="7"/>
@@ -19272,20 +19272,20 @@
     </row>
     <row r="30" spans="1:32" s="8" customFormat="1">
       <c r="A30" s="8" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="E30" s="9"/>
       <c r="G30" s="6" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I30" t="str">
         <f t="shared" si="7"/>
@@ -19354,10 +19354,10 @@
     </row>
     <row r="31" spans="1:32">
       <c r="A31" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B31" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="I31" t="str">
         <f t="shared" si="7"/>
@@ -19426,19 +19426,19 @@
     </row>
     <row r="32" spans="1:32">
       <c r="A32" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C32" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F32">
         <v>255</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I32" t="str">
         <f t="shared" si="7"/>
@@ -19507,19 +19507,19 @@
     </row>
     <row r="33" spans="1:32">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C33" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F33">
         <v>255</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I33" t="str">
         <f t="shared" si="7"/>
@@ -19588,19 +19588,19 @@
     </row>
     <row r="34" spans="1:32">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B34" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C34" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F34">
         <v>100</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I34" t="str">
         <f t="shared" si="7"/>
@@ -19669,19 +19669,19 @@
     </row>
     <row r="35" spans="1:32">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B35" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C35" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F35">
         <v>100</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="7"/>
@@ -19750,19 +19750,19 @@
     </row>
     <row r="36" spans="1:32">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B36" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C36" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F36">
         <v>100</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="7"/>
@@ -19831,19 +19831,19 @@
     </row>
     <row r="37" spans="1:32">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B37" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C37" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F37">
         <v>3</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I37" t="str">
         <f t="shared" si="7"/>
@@ -19912,16 +19912,16 @@
     </row>
     <row r="38" spans="1:32">
       <c r="A38" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B38" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C38" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I38" t="str">
         <f t="shared" si="7"/>
@@ -19990,16 +19990,16 @@
     </row>
     <row r="39" spans="1:32">
       <c r="A39" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B39" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C39" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I39" t="str">
         <f t="shared" si="7"/>
@@ -20068,19 +20068,19 @@
     </row>
     <row r="40" spans="1:32">
       <c r="A40" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C40" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F40">
         <v>3</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I40" t="str">
         <f t="shared" si="7"/>
@@ -20149,16 +20149,16 @@
     </row>
     <row r="41" spans="1:32">
       <c r="A41" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B41" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C41" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I41" t="str">
         <f t="shared" si="7"/>
@@ -20227,16 +20227,16 @@
     </row>
     <row r="42" spans="1:32">
       <c r="A42" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C42" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="I42" t="str">
         <f t="shared" si="7"/>
@@ -20305,7 +20305,7 @@
     </row>
     <row r="46" spans="1:32">
       <c r="A46" s="10" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B46" t="str">
         <f>SUBSTITUTE(A46,"FK","")</f>
@@ -20318,7 +20318,7 @@
     </row>
     <row r="47" spans="1:32">
       <c r="A47" s="10" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B47" t="str">
         <f t="shared" ref="B47:B49" si="29">SUBSTITUTE(A47,"FK","")</f>
@@ -20331,7 +20331,7 @@
     </row>
     <row r="48" spans="1:32">
       <c r="A48" s="10" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B48" t="str">
         <f t="shared" si="29"/>
@@ -20344,7 +20344,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="10" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B49" t="str">
         <f t="shared" si="29"/>
@@ -20373,17 +20373,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -20396,7 +20396,7 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
@@ -20406,226 +20406,226 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="C1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>312</v>
       </c>
       <c r="B9" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C11" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B12" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B14" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C16" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -20648,16 +20648,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E1" t="str">
         <f>"# inspired by "&amp;A1</f>
@@ -20666,7 +20666,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B2">
         <f>IF(ISERR(FIND(B$1,$A2)),"",FIND(B$1,$A2))</f>
@@ -20687,7 +20687,7 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" ref="B3:C17" si="0">IF(ISERR(FIND("""",$A3)),"",FIND("""",$A3))</f>
@@ -20708,7 +20708,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
@@ -20729,7 +20729,7 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="4" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
@@ -20750,7 +20750,7 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -20771,7 +20771,7 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -20792,7 +20792,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -20813,7 +20813,7 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -20834,7 +20834,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="4" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -20855,7 +20855,7 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -20876,7 +20876,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -20897,7 +20897,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="4" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -20918,7 +20918,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="4" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -20939,7 +20939,7 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -20960,7 +20960,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="4" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B16" t="str">
         <f t="shared" si="0"/>
@@ -20981,7 +20981,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="4" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B17" t="str">
         <f t="shared" si="0"/>
@@ -21025,16 +21025,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="D1" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E1" t="str">
         <f>"# inspired by "&amp;A1</f>
@@ -21044,12 +21044,12 @@
     <row r="2" spans="1:5">
       <c r="A2" s="3"/>
       <c r="E2" s="6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="17">
       <c r="A3" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B3">
         <f>IF(ISERR(FIND(B$1,$A3)),"",FIND(B$1,$A3))</f>
@@ -21068,9 +21068,9 @@
         <v xml:space="preserve">    --Telephone:</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="17">
       <c r="A4" s="5" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B4">
         <f t="shared" ref="B4:B27" si="0">IF(ISERR(FIND(B$1,$A4)),"",FIND(B$1,$A4))</f>
@@ -21089,9 +21089,9 @@
         <v xml:space="preserve">        --FormattedNumber:</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="17">
       <c r="A5" s="5" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
@@ -21128,9 +21128,9 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" ht="17">
       <c r="A7" s="5" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -21149,9 +21149,9 @@
         <v xml:space="preserve">    --Mobile:</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" ht="17">
       <c r="A8" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -21170,9 +21170,9 @@
         <v xml:space="preserve">        --InternationalCountryCode:</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" ht="17">
       <c r="A9" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -21191,9 +21191,9 @@
         <v xml:space="preserve">        --AreaCityCode:</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" ht="17">
       <c r="A10" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -21212,9 +21212,9 @@
         <v xml:space="preserve">        --SubscriberNumber:</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" ht="17">
       <c r="A11" s="5" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -21251,9 +21251,9 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" ht="17">
       <c r="A13" s="5" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -21272,9 +21272,9 @@
         <v xml:space="preserve">    --Fax:</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="17">
       <c r="A14" s="5" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -21293,9 +21293,9 @@
         <v xml:space="preserve">        --InternationalCountryCode:</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" ht="17">
       <c r="A15" s="5" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -21314,9 +21314,9 @@
         <v xml:space="preserve">        --AreaCityCode:</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" ht="17">
       <c r="A16" s="5" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -21335,9 +21335,9 @@
         <v xml:space="preserve">        --SubscriberNumber:</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" ht="17">
       <c r="A17" s="5" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -21374,9 +21374,9 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" ht="17">
       <c r="A19" s="5" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -21395,9 +21395,9 @@
         <v xml:space="preserve">    --Pager:</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" ht="17">
       <c r="A20" s="5" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -21416,9 +21416,9 @@
         <v xml:space="preserve">        --InternationalCountryCode:</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="17">
       <c r="A21" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
@@ -21437,9 +21437,9 @@
         <v xml:space="preserve">        --AreaCityCode:</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" ht="17">
       <c r="A22" s="5" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -21458,9 +21458,9 @@
         <v xml:space="preserve">        --SubscriberNumber:</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="17">
       <c r="A23" s="5" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -21479,9 +21479,9 @@
         <v xml:space="preserve">        --Extension:</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="17">
       <c r="A24" s="5" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -21518,9 +21518,9 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" ht="17">
       <c r="A26" s="5" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -21539,9 +21539,9 @@
         <v xml:space="preserve">    --InternetEmailAddress:</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" ht="17">
       <c r="A27" s="5" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
